--- a/doc/_editable/Artifacts.xlsx
+++ b/doc/_editable/Artifacts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\WYSIWYD\doc\_editable\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,14 +15,14 @@
     <sheet name="MyBar Artifacts" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'MyBar Artifacts'!$A$1:$E$56</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'MyBar Artifacts'!$A$1:$E$60</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="126">
   <si>
     <t>Notes</t>
   </si>
@@ -336,9 +336,6 @@
     <t>Dag Fridén, Mathias Bjurbäck</t>
   </si>
   <si>
-    <t>We tried this the first half of the project to set up meetings et cetera</t>
-  </si>
-  <si>
     <t>Mailflow (Production)</t>
   </si>
   <si>
@@ -382,13 +379,34 @@
   </si>
   <si>
     <t>Mostly with robotium</t>
+  </si>
+  <si>
+    <t>Sunday Meeting Notes and Chairman</t>
+  </si>
+  <si>
+    <t>GitHub (Preparation and Installation)</t>
+  </si>
+  <si>
+    <t>Refactoring</t>
+  </si>
+  <si>
+    <t>Layout</t>
+  </si>
+  <si>
+    <t>Logics</t>
+  </si>
+  <si>
+    <t>Dag Fridén, Mathias Karlgren</t>
+  </si>
+  <si>
+    <t>We tried to use SharePoint the first half of the project, to set up meetings et cetera</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -441,6 +459,11 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -524,7 +547,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -552,12 +575,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -584,6 +601,18 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -643,7 +672,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -667,7 +696,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -891,14 +920,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:F104" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A2:F104"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:F110" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A2:F110"/>
   <tableColumns count="6">
     <tableColumn id="1" name="General Context" dataDxfId="5"/>
     <tableColumn id="2" name="Particular Context" dataDxfId="4"/>
     <tableColumn id="12" name="Main Contributors" dataDxfId="3"/>
-    <tableColumn id="3" name="Contributors" dataDxfId="1"/>
-    <tableColumn id="13" name="Notes" dataDxfId="2"/>
+    <tableColumn id="3" name="Contributors" dataDxfId="2"/>
+    <tableColumn id="13" name="Notes" dataDxfId="1"/>
     <tableColumn id="5" name="Notes 2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1194,13 +1223,13 @@
     <tabColor theme="6" tint="0.79998168889431442"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G165"/>
+  <dimension ref="A1:G171"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C69" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B78" sqref="B78"/>
+      <selection pane="bottomRight" activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1209,16 +1238,16 @@
     <col min="2" max="2" width="33.140625" style="4" customWidth="1"/>
     <col min="3" max="3" width="66.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.5703125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="67" style="4" customWidth="1"/>
+    <col min="5" max="5" width="71.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="37.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="6" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="22"/>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
       <c r="E1" s="10"/>
@@ -1226,10 +1255,10 @@
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>109</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>110</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>41</v>
@@ -1240,13 +1269,13 @@
       <c r="E2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="18" t="s">
         <v>91</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="14" t="s">
         <v>52</v>
       </c>
       <c r="B3" s="5"/>
@@ -1257,7 +1286,7 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="5"/>
@@ -1268,7 +1297,7 @@
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -1283,7 +1312,7 @@
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -1298,7 +1327,7 @@
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -1313,7 +1342,7 @@
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1330,7 +1359,7 @@
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -1345,7 +1374,7 @@
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -1362,7 +1391,7 @@
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -1377,7 +1406,7 @@
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1396,7 +1425,7 @@
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -1411,7 +1440,7 @@
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -1426,7 +1455,7 @@
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -1443,7 +1472,7 @@
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -1458,7 +1487,7 @@
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -1469,13 +1498,13 @@
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -1490,7 +1519,7 @@
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -1505,7 +1534,7 @@
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="5"/>
@@ -1516,7 +1545,7 @@
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -1531,7 +1560,7 @@
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -1546,7 +1575,7 @@
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -1561,7 +1590,7 @@
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="12" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="5"/>
@@ -1572,7 +1601,7 @@
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -1589,7 +1618,7 @@
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -1604,7 +1633,7 @@
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -1619,7 +1648,7 @@
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -1634,7 +1663,7 @@
       <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="12" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="5"/>
@@ -1645,7 +1674,7 @@
       <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -1660,7 +1689,7 @@
       <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B31" s="5" t="s">
@@ -1675,7 +1704,7 @@
       <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B32" s="5" t="s">
@@ -1690,7 +1719,7 @@
       <c r="G32" s="3"/>
     </row>
     <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -1705,7 +1734,7 @@
       <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B34" s="5" t="s">
@@ -1718,7 +1747,7 @@
       <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="13" t="s">
         <v>33</v>
       </c>
       <c r="B35" s="5"/>
@@ -1729,7 +1758,7 @@
       <c r="G35" s="3"/>
     </row>
     <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B36" s="5" t="s">
@@ -1744,7 +1773,7 @@
       <c r="G36" s="3"/>
     </row>
     <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="13" t="s">
         <v>35</v>
       </c>
       <c r="B37" s="5"/>
@@ -1755,7 +1784,7 @@
       <c r="G37" s="3"/>
     </row>
     <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B38" s="5" t="s">
@@ -1770,7 +1799,7 @@
       <c r="G38" s="3"/>
     </row>
     <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B39" s="5" t="s">
@@ -1789,13 +1818,13 @@
       <c r="G40" s="3"/>
     </row>
     <row r="41" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" s="18" t="s">
+      <c r="A41" s="16" t="s">
         <v>57</v>
       </c>
       <c r="F41" s="5"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B42" s="4" t="s">
@@ -1807,7 +1836,7 @@
       <c r="F42" s="5"/>
     </row>
     <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -1819,7 +1848,7 @@
       <c r="F43" s="5"/>
     </row>
     <row r="44" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B44" s="4" t="s">
@@ -1834,7 +1863,7 @@
       <c r="F44" s="5"/>
     </row>
     <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B45" s="4" t="s">
@@ -1846,35 +1875,35 @@
       <c r="F45" s="5"/>
     </row>
     <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B46" s="17" t="s">
+      <c r="A46" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C46" s="17" t="s">
+      <c r="C46" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
       <c r="F46" s="5"/>
     </row>
     <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B47" s="17" t="s">
+      <c r="A47" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C47" s="17" t="s">
+      <c r="C47" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
       <c r="F47" s="5"/>
     </row>
     <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B48" s="4" t="s">
@@ -1886,707 +1915,773 @@
       <c r="F48" s="5"/>
     </row>
     <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="5"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="5"/>
+      <c r="A49" s="23"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="23"/>
     </row>
     <row r="50" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="16" t="s">
+      <c r="A50" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B50" s="24"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="23"/>
+    </row>
+    <row r="51" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="23"/>
+      <c r="B51" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="C51" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="23"/>
+    </row>
+    <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="5"/>
+      <c r="B52" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="5"/>
+    </row>
+    <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="23"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="23"/>
+    </row>
+    <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="5"/>
+    </row>
+    <row r="55" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="F55" s="5"/>
+    </row>
+    <row r="56" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="5"/>
+    </row>
+    <row r="57" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="15"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="3"/>
+    </row>
+    <row r="58" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="3"/>
+    </row>
+    <row r="59" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="3"/>
+    </row>
+    <row r="60" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="3"/>
+    </row>
+    <row r="61" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F61" s="5"/>
+    </row>
+    <row r="62" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="15"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="5"/>
+    </row>
+    <row r="63" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63" s="15"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="5"/>
+    </row>
+    <row r="64" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="5"/>
+    </row>
+    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="5"/>
+    </row>
+    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="5"/>
+    </row>
+    <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="5"/>
+    </row>
+    <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="5"/>
+    </row>
+    <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="5"/>
+    </row>
+    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="5"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="5"/>
+    </row>
+    <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="F72" s="5"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="5"/>
+    </row>
+    <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B74" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="5"/>
+    </row>
+    <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D75" s="15"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="5"/>
+    </row>
+    <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="5"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D77" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E77" s="15"/>
+      <c r="F77" s="5"/>
+    </row>
+    <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B78" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="5"/>
+    </row>
+    <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B79" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="5"/>
-    </row>
-    <row r="51" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B51" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="C51" s="17" t="s">
+      <c r="C79" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17" t="s">
+      <c r="D79" s="15"/>
+      <c r="E79" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="F79" s="5"/>
+    </row>
+    <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B80" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C80" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D80" s="15"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="5"/>
+    </row>
+    <row r="81" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B81" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C81" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D81" s="15"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="5"/>
+    </row>
+    <row r="82" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="15"/>
+      <c r="B82" s="15"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="5"/>
+    </row>
+    <row r="83" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B83" s="15"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="5"/>
+    </row>
+    <row r="84" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B84" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C84" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D84" s="15"/>
+      <c r="E84" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="F84" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B85" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="F51" s="5"/>
-    </row>
-    <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B52" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="C52" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="5"/>
-    </row>
-    <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="17"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="3"/>
-    </row>
-    <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="3"/>
-    </row>
-    <row r="55" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B55" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C55" s="17" t="s">
+      <c r="C85" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D85" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E85" s="24"/>
+      <c r="F85" s="23"/>
+    </row>
+    <row r="86" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B86" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C86" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D86" s="15"/>
+      <c r="E86" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F86" s="5"/>
+    </row>
+    <row r="87" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B87" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C87" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D87" s="15"/>
+      <c r="E87" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F87" s="5"/>
+    </row>
+    <row r="88" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B88" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C88" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D88" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E88" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F88" s="5"/>
+    </row>
+    <row r="89" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="15"/>
+      <c r="B89" s="15"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="5"/>
+    </row>
+    <row r="90" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B90" s="15"/>
+      <c r="C90" s="15"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="5"/>
+    </row>
+    <row r="91" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B91" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C91" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D91" s="15"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="5"/>
+    </row>
+    <row r="92" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B92" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C92" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D92" s="15"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="5"/>
+    </row>
+    <row r="93" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B93" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C93" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D93" s="24"/>
+      <c r="E93" s="24"/>
+      <c r="F93" s="23"/>
+    </row>
+    <row r="94" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B94" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C94" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D94" s="15"/>
+      <c r="E94" s="15"/>
+      <c r="F94" s="5"/>
+    </row>
+    <row r="95" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B95" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C95" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="3"/>
-    </row>
-    <row r="56" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B56" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C56" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="3"/>
-    </row>
-    <row r="57" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B57" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="C57" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="F57" s="5"/>
-    </row>
-    <row r="58" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="17"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="5"/>
-    </row>
-    <row r="59" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="B59" s="17"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="5"/>
-    </row>
-    <row r="60" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B60" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C60" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="5"/>
-    </row>
-    <row r="61" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B61" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="C61" s="17" t="s">
+      <c r="D95" s="15"/>
+      <c r="E95" s="15"/>
+      <c r="F95" s="5"/>
+    </row>
+    <row r="96" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B96" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C96" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D61" s="17"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="5"/>
-    </row>
-    <row r="62" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B62" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="C62" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D62" s="17"/>
-      <c r="E62" s="17"/>
-      <c r="F62" s="5"/>
-    </row>
-    <row r="63" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B63" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C63" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D63" s="17"/>
-      <c r="E63" s="17"/>
-      <c r="F63" s="5"/>
-    </row>
-    <row r="64" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B64" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="C64" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D64" s="17"/>
-      <c r="E64" s="17"/>
-      <c r="F64" s="5"/>
-    </row>
-    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B65" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="C65" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D65" s="17"/>
-      <c r="E65" s="17"/>
-      <c r="F65" s="5"/>
-    </row>
-    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B66" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="C66" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D66" s="17"/>
-      <c r="E66" s="17"/>
-      <c r="F66" s="5"/>
-    </row>
-    <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B67" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C67" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D67" s="17"/>
-      <c r="E67" s="17"/>
-      <c r="F67" s="5"/>
-    </row>
-    <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B68" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="C68" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D68" s="17"/>
-      <c r="E68" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="F68" s="5"/>
-    </row>
-    <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B69" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C69" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D69" s="17"/>
-      <c r="E69" s="17"/>
-      <c r="F69" s="5"/>
-    </row>
-    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B70" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="C70" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D70" s="17"/>
-      <c r="E70" s="17"/>
-      <c r="F70" s="5"/>
-    </row>
-    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B71" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C71" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="D71" s="17"/>
-      <c r="E71" s="17"/>
-      <c r="F71" s="5"/>
-    </row>
-    <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B72" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="C72" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D72" s="17"/>
-      <c r="E72" s="17"/>
-      <c r="F72" s="5"/>
-    </row>
-    <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B73" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="C73" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D73" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E73" s="17"/>
-      <c r="F73" s="5"/>
-    </row>
-    <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B74" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C74" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D74" s="17"/>
-      <c r="E74" s="17"/>
-      <c r="F74" s="5"/>
-    </row>
-    <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B75" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="C75" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D75" s="17"/>
-      <c r="E75" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="F75" s="5"/>
-    </row>
-    <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B76" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C76" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D76" s="17"/>
-      <c r="E76" s="17"/>
-      <c r="F76" s="5"/>
-    </row>
-    <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B77" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="C77" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="D77" s="17"/>
-      <c r="E77" s="17"/>
-      <c r="F77" s="5"/>
-    </row>
-    <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="17"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="17"/>
-      <c r="D78" s="17"/>
-      <c r="E78" s="17"/>
-      <c r="F78" s="5"/>
-    </row>
-    <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="B79" s="17"/>
-      <c r="C79" s="17"/>
-      <c r="D79" s="17"/>
-      <c r="E79" s="17"/>
-      <c r="F79" s="5"/>
-    </row>
-    <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B80" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C80" s="17" t="s">
+      <c r="D96" s="15"/>
+      <c r="E96" s="15"/>
+      <c r="F96" s="5"/>
+    </row>
+    <row r="97" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B97" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C97" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="D80" s="17"/>
-      <c r="E80" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="F80" s="17" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B81" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="C81" s="17" t="s">
+      <c r="D97" s="15"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="5"/>
+    </row>
+    <row r="98" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B98" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C98" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="D81" s="17"/>
-      <c r="E81" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="F81" s="5"/>
-    </row>
-    <row r="82" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B82" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="C82" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="D82" s="17"/>
-      <c r="E82" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="F82" s="5"/>
-    </row>
-    <row r="83" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B83" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="C83" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="D83" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E83" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="F83" s="5"/>
-    </row>
-    <row r="84" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="17"/>
-      <c r="B84" s="17"/>
-      <c r="C84" s="17"/>
-      <c r="D84" s="17"/>
-      <c r="E84" s="17"/>
-      <c r="F84" s="5"/>
-    </row>
-    <row r="85" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="B85" s="17"/>
-      <c r="C85" s="17"/>
-      <c r="D85" s="17"/>
-      <c r="E85" s="17"/>
-      <c r="F85" s="5"/>
-    </row>
-    <row r="86" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B86" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C86" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="D86" s="17"/>
-      <c r="E86" s="17"/>
-      <c r="F86" s="5"/>
-    </row>
-    <row r="87" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B87" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="C87" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D87" s="17"/>
-      <c r="E87" s="17"/>
-      <c r="F87" s="5"/>
-    </row>
-    <row r="88" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B88" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="C88" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="D88" s="17"/>
-      <c r="E88" s="17"/>
-      <c r="F88" s="5"/>
-    </row>
-    <row r="89" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B89" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="C89" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D89" s="17"/>
-      <c r="E89" s="17"/>
-      <c r="F89" s="5"/>
-    </row>
-    <row r="90" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B90" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="C90" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D90" s="17"/>
-      <c r="E90" s="17"/>
-      <c r="F90" s="5"/>
-    </row>
-    <row r="91" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B91" s="17" t="s">
+      <c r="D98" s="15"/>
+      <c r="E98" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="F98" s="5"/>
+    </row>
+    <row r="99" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B99" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C91" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="D91" s="17"/>
-      <c r="E91" s="17"/>
-      <c r="F91" s="5"/>
-    </row>
-    <row r="92" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B92" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="C92" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="D92" s="17"/>
-      <c r="E92" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="F92" s="5"/>
-    </row>
-    <row r="93" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B93" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="C93" s="17" t="s">
+      <c r="C99" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="D93" s="17"/>
-      <c r="E93" s="17"/>
-      <c r="F93" s="5"/>
-    </row>
-    <row r="94" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="17"/>
-      <c r="B94" s="17"/>
-      <c r="C94" s="17"/>
-      <c r="D94" s="17"/>
-      <c r="E94" s="17"/>
-      <c r="F94" s="5"/>
-    </row>
-    <row r="95" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="17"/>
-      <c r="B95" s="17"/>
-      <c r="C95" s="17"/>
-      <c r="D95" s="17"/>
-      <c r="E95" s="17"/>
-      <c r="F95" s="5"/>
-    </row>
-    <row r="96" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="17"/>
-      <c r="B96" s="17"/>
-      <c r="C96" s="17"/>
-      <c r="D96" s="17"/>
-      <c r="E96" s="17"/>
-      <c r="F96" s="5"/>
-    </row>
-    <row r="97" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="17"/>
-      <c r="B97" s="17"/>
-      <c r="C97" s="17"/>
-      <c r="D97" s="17"/>
-      <c r="E97" s="17"/>
-      <c r="F97" s="5"/>
-    </row>
-    <row r="98" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="17"/>
-      <c r="B98" s="17"/>
-      <c r="C98" s="17"/>
-      <c r="D98" s="17"/>
-      <c r="E98" s="17"/>
-      <c r="F98" s="5"/>
-    </row>
-    <row r="99" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="17"/>
-      <c r="B99" s="17"/>
-      <c r="C99" s="17"/>
-      <c r="D99" s="17"/>
-      <c r="E99" s="17"/>
+      <c r="D99" s="15"/>
+      <c r="E99" s="15"/>
       <c r="F99" s="5"/>
     </row>
     <row r="100" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="17"/>
-      <c r="B100" s="17"/>
-      <c r="C100" s="17"/>
-      <c r="D100" s="17"/>
-      <c r="E100" s="17"/>
+      <c r="A100" s="15"/>
+      <c r="B100" s="15"/>
+      <c r="C100" s="15"/>
+      <c r="D100" s="15"/>
+      <c r="E100" s="15"/>
       <c r="F100" s="5"/>
     </row>
     <row r="101" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="17"/>
-      <c r="B101" s="17"/>
-      <c r="C101" s="17"/>
-      <c r="D101" s="17"/>
-      <c r="E101" s="17"/>
+      <c r="A101" s="15"/>
+      <c r="B101" s="15"/>
+      <c r="C101" s="15"/>
+      <c r="D101" s="15"/>
+      <c r="E101" s="15"/>
       <c r="F101" s="5"/>
     </row>
     <row r="102" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="17"/>
-      <c r="B102" s="17"/>
-      <c r="C102" s="17"/>
-      <c r="D102" s="17"/>
-      <c r="E102" s="17"/>
+      <c r="A102" s="15"/>
+      <c r="B102" s="15"/>
+      <c r="C102" s="15"/>
+      <c r="D102" s="15"/>
+      <c r="E102" s="15"/>
       <c r="F102" s="5"/>
     </row>
     <row r="103" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="17"/>
-      <c r="B103" s="17"/>
-      <c r="C103" s="17"/>
-      <c r="D103" s="17"/>
-      <c r="E103" s="17"/>
+      <c r="A103" s="15"/>
+      <c r="B103" s="15"/>
+      <c r="C103" s="15"/>
+      <c r="D103" s="15"/>
+      <c r="E103" s="15"/>
       <c r="F103" s="5"/>
     </row>
     <row r="104" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="17"/>
-      <c r="B104" s="17"/>
-      <c r="C104" s="17"/>
-      <c r="D104" s="17"/>
-      <c r="E104" s="17"/>
+      <c r="A104" s="15"/>
+      <c r="B104" s="15"/>
+      <c r="C104" s="15"/>
+      <c r="D104" s="15"/>
+      <c r="E104" s="15"/>
       <c r="F104" s="5"/>
     </row>
-    <row r="105" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="15"/>
+      <c r="B105" s="15"/>
+      <c r="C105" s="15"/>
+      <c r="D105" s="15"/>
+      <c r="E105" s="15"/>
+      <c r="F105" s="5"/>
+    </row>
+    <row r="106" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="15"/>
+      <c r="B106" s="15"/>
+      <c r="C106" s="15"/>
+      <c r="D106" s="15"/>
+      <c r="E106" s="15"/>
+      <c r="F106" s="5"/>
+    </row>
+    <row r="107" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="15"/>
+      <c r="B107" s="15"/>
+      <c r="C107" s="15"/>
+      <c r="D107" s="15"/>
+      <c r="E107" s="15"/>
+      <c r="F107" s="5"/>
+    </row>
+    <row r="108" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="15"/>
+      <c r="B108" s="15"/>
+      <c r="C108" s="15"/>
+      <c r="D108" s="15"/>
+      <c r="E108" s="15"/>
+      <c r="F108" s="5"/>
+    </row>
+    <row r="109" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="15"/>
+      <c r="B109" s="15"/>
+      <c r="C109" s="15"/>
+      <c r="D109" s="15"/>
+      <c r="E109" s="15"/>
+      <c r="F109" s="5"/>
+    </row>
+    <row r="110" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="15"/>
+      <c r="B110" s="15"/>
+      <c r="C110" s="15"/>
+      <c r="D110" s="15"/>
+      <c r="E110" s="15"/>
+      <c r="F110" s="5"/>
+    </row>
     <row r="111" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="112" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2642,6 +2737,12 @@
     <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/doc/_editable/Artifacts.xlsx
+++ b/doc/_editable/Artifacts.xlsx
@@ -1226,10 +1226,10 @@
   <dimension ref="A1:G171"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C74" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D74" sqref="D74"/>
+      <selection pane="bottomRight" activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/doc/_editable/Artifacts.xlsx
+++ b/doc/_editable/Artifacts.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="128">
   <si>
     <t>Notes</t>
   </si>
@@ -400,6 +400,12 @@
   </si>
   <si>
     <t>We tried to use SharePoint the first half of the project, to set up meetings et cetera</t>
+  </si>
+  <si>
+    <t>Mailflow (correspondence)</t>
+  </si>
+  <si>
+    <t>Well over 300 mails!</t>
   </si>
 </sst>
 </file>
@@ -603,17 +609,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -920,8 +926,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:F110" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A2:F110"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:F111" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A2:F111"/>
   <tableColumns count="6">
     <tableColumn id="1" name="General Context" dataDxfId="5"/>
     <tableColumn id="2" name="Particular Context" dataDxfId="4"/>
@@ -1223,13 +1229,13 @@
     <tabColor theme="6" tint="0.79998168889431442"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G171"/>
+  <dimension ref="A1:G172"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C74" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C105" sqref="C105"/>
+      <selection pane="bottomRight" activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1244,10 +1250,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="6" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="24"/>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
       <c r="E1" s="10"/>
@@ -1915,34 +1921,34 @@
       <c r="F48" s="5"/>
     </row>
     <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="23"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="23"/>
+      <c r="A49" s="21"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B50" s="24"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="23"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="23"/>
-      <c r="B51" s="24" t="s">
+      <c r="A51" s="21"/>
+      <c r="B51" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="C51" s="24" t="s">
+      <c r="C51" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="23"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="5"/>
@@ -1957,12 +1963,12 @@
       <c r="F52" s="5"/>
     </row>
     <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="23"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="23"/>
+      <c r="A53" s="21"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
@@ -2386,17 +2392,17 @@
       <c r="A85" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B85" s="24" t="s">
+      <c r="B85" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="C85" s="24" t="s">
+      <c r="C85" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D85" s="24" t="s">
+      <c r="D85" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="E85" s="24"/>
-      <c r="F85" s="23"/>
+      <c r="E85" s="22"/>
+      <c r="F85" s="21"/>
     </row>
     <row r="86" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="11" t="s">
@@ -2434,48 +2440,50 @@
       <c r="A88" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B88" s="15" t="s">
+      <c r="B88" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="C88" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D88" s="22"/>
+      <c r="E88" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="F88" s="21"/>
+    </row>
+    <row r="89" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B89" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C88" s="15" t="s">
+      <c r="C89" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="D88" s="15" t="s">
+      <c r="D89" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="E88" s="15" t="s">
+      <c r="E89" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="F88" s="5"/>
-    </row>
-    <row r="89" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="15"/>
-      <c r="B89" s="15"/>
-      <c r="C89" s="15"/>
-      <c r="D89" s="15"/>
-      <c r="E89" s="15"/>
       <c r="F89" s="5"/>
     </row>
-    <row r="90" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="17" t="s">
-        <v>85</v>
-      </c>
+    <row r="90" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="15"/>
       <c r="B90" s="15"/>
       <c r="C90" s="15"/>
       <c r="D90" s="15"/>
       <c r="E90" s="15"/>
       <c r="F90" s="5"/>
     </row>
-    <row r="91" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B91" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C91" s="15" t="s">
-        <v>88</v>
-      </c>
+    <row r="91" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B91" s="15"/>
+      <c r="C91" s="15"/>
       <c r="D91" s="15"/>
       <c r="E91" s="15"/>
       <c r="F91" s="5"/>
@@ -2485,10 +2493,10 @@
         <v>2</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C92" s="15" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="D92" s="15"/>
       <c r="E92" s="15"/>
@@ -2498,39 +2506,39 @@
       <c r="A93" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B93" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="C93" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="D93" s="24"/>
-      <c r="E93" s="24"/>
-      <c r="F93" s="23"/>
+      <c r="B93" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C93" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D93" s="15"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="5"/>
     </row>
     <row r="94" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B94" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="C94" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="D94" s="15"/>
-      <c r="E94" s="15"/>
-      <c r="F94" s="5"/>
+      <c r="B94" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="C94" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D94" s="22"/>
+      <c r="E94" s="22"/>
+      <c r="F94" s="21"/>
     </row>
     <row r="95" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C95" s="15" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="D95" s="15"/>
       <c r="E95" s="15"/>
@@ -2541,10 +2549,10 @@
         <v>2</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C96" s="15" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D96" s="15"/>
       <c r="E96" s="15"/>
@@ -2555,10 +2563,10 @@
         <v>2</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="D97" s="15"/>
       <c r="E97" s="15"/>
@@ -2569,15 +2577,13 @@
         <v>2</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C98" s="15" t="s">
         <v>88</v>
       </c>
       <c r="D98" s="15"/>
-      <c r="E98" s="15" t="s">
-        <v>125</v>
-      </c>
+      <c r="E98" s="15"/>
       <c r="F98" s="5"/>
     </row>
     <row r="99" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2585,19 +2591,27 @@
         <v>2</v>
       </c>
       <c r="B99" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C99" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D99" s="15"/>
+      <c r="E99" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="F99" s="5"/>
+    </row>
+    <row r="100" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B100" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C99" s="15" t="s">
+      <c r="C100" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="D99" s="15"/>
-      <c r="E99" s="15"/>
-      <c r="F99" s="5"/>
-    </row>
-    <row r="100" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="15"/>
-      <c r="B100" s="15"/>
-      <c r="C100" s="15"/>
       <c r="D100" s="15"/>
       <c r="E100" s="15"/>
       <c r="F100" s="5"/>
@@ -2682,7 +2696,14 @@
       <c r="E110" s="15"/>
       <c r="F110" s="5"/>
     </row>
-    <row r="111" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="15"/>
+      <c r="B111" s="15"/>
+      <c r="C111" s="15"/>
+      <c r="D111" s="15"/>
+      <c r="E111" s="15"/>
+      <c r="F111" s="5"/>
+    </row>
     <row r="112" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2743,6 +2764,7 @@
     <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/doc/_editable/Artifacts.xlsx
+++ b/doc/_editable/Artifacts.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="129">
   <si>
     <t>Notes</t>
   </si>
@@ -406,6 +406,9 @@
   </si>
   <si>
     <t>Well over 300 mails!</t>
+  </si>
+  <si>
+    <t>User Stories Description</t>
   </si>
 </sst>
 </file>
@@ -926,8 +929,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:F111" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A2:F111"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:F112" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A2:F112"/>
   <tableColumns count="6">
     <tableColumn id="1" name="General Context" dataDxfId="5"/>
     <tableColumn id="2" name="Particular Context" dataDxfId="4"/>
@@ -1229,13 +1232,13 @@
     <tabColor theme="6" tint="0.79998168889431442"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G172"/>
+  <dimension ref="A1:G173"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C74" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C9" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E88" sqref="E88"/>
+      <selection pane="bottomRight" activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2342,90 +2345,88 @@
       <c r="A81" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B81" s="15" t="s">
+      <c r="B81" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="C81" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D81" s="22"/>
+      <c r="E81" s="22"/>
+      <c r="F81" s="21"/>
+    </row>
+    <row r="82" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B82" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C81" s="15" t="s">
+      <c r="C82" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D81" s="15"/>
-      <c r="E81" s="15"/>
-      <c r="F81" s="5"/>
-    </row>
-    <row r="82" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="15"/>
-      <c r="B82" s="15"/>
-      <c r="C82" s="15"/>
       <c r="D82" s="15"/>
       <c r="E82" s="15"/>
       <c r="F82" s="5"/>
     </row>
-    <row r="83" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="17" t="s">
-        <v>89</v>
-      </c>
+    <row r="83" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="15"/>
       <c r="B83" s="15"/>
       <c r="C83" s="15"/>
       <c r="D83" s="15"/>
       <c r="E83" s="15"/>
       <c r="F83" s="5"/>
     </row>
-    <row r="84" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B84" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C84" s="15" t="s">
-        <v>88</v>
-      </c>
+    <row r="84" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84" s="15"/>
+      <c r="C84" s="15"/>
       <c r="D84" s="15"/>
-      <c r="E84" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="F84" s="15" t="s">
-        <v>92</v>
-      </c>
+      <c r="E84" s="15"/>
+      <c r="F84" s="5"/>
     </row>
     <row r="85" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B85" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="C85" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D85" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="E85" s="22"/>
-      <c r="F85" s="21"/>
+      <c r="B85" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D85" s="15"/>
+      <c r="E85" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="F85" s="15" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="86" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B86" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="C86" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="D86" s="15"/>
-      <c r="E86" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="F86" s="5"/>
+      <c r="B86" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C86" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D86" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="E86" s="22"/>
+      <c r="F86" s="21"/>
     </row>
     <row r="87" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C87" s="15" t="s">
         <v>88</v>
@@ -2440,64 +2441,66 @@
       <c r="A88" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B88" s="22" t="s">
-        <v>126</v>
+      <c r="B88" s="15" t="s">
+        <v>95</v>
       </c>
       <c r="C88" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="D88" s="22"/>
-      <c r="E88" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="F88" s="21"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F88" s="5"/>
     </row>
     <row r="89" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B89" s="15" t="s">
+      <c r="B89" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="C89" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D89" s="22"/>
+      <c r="E89" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="F89" s="21"/>
+    </row>
+    <row r="90" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B90" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C89" s="15" t="s">
+      <c r="C90" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="D89" s="15" t="s">
+      <c r="D90" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="E89" s="15" t="s">
+      <c r="E90" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="F89" s="5"/>
-    </row>
-    <row r="90" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="15"/>
-      <c r="B90" s="15"/>
-      <c r="C90" s="15"/>
-      <c r="D90" s="15"/>
-      <c r="E90" s="15"/>
       <c r="F90" s="5"/>
     </row>
-    <row r="91" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="17" t="s">
-        <v>85</v>
-      </c>
+    <row r="91" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="15"/>
       <c r="B91" s="15"/>
       <c r="C91" s="15"/>
       <c r="D91" s="15"/>
       <c r="E91" s="15"/>
       <c r="F91" s="5"/>
     </row>
-    <row r="92" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B92" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C92" s="15" t="s">
-        <v>88</v>
-      </c>
+    <row r="92" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B92" s="15"/>
+      <c r="C92" s="15"/>
       <c r="D92" s="15"/>
       <c r="E92" s="15"/>
       <c r="F92" s="5"/>
@@ -2507,10 +2510,10 @@
         <v>2</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C93" s="15" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="D93" s="15"/>
       <c r="E93" s="15"/>
@@ -2520,39 +2523,39 @@
       <c r="A94" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B94" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="C94" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D94" s="22"/>
-      <c r="E94" s="22"/>
-      <c r="F94" s="21"/>
+      <c r="B94" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C94" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D94" s="15"/>
+      <c r="E94" s="15"/>
+      <c r="F94" s="5"/>
     </row>
     <row r="95" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B95" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="C95" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="D95" s="15"/>
-      <c r="E95" s="15"/>
-      <c r="F95" s="5"/>
+      <c r="B95" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="C95" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D95" s="22"/>
+      <c r="E95" s="22"/>
+      <c r="F95" s="21"/>
     </row>
     <row r="96" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C96" s="15" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="D96" s="15"/>
       <c r="E96" s="15"/>
@@ -2563,10 +2566,10 @@
         <v>2</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D97" s="15"/>
       <c r="E97" s="15"/>
@@ -2577,10 +2580,10 @@
         <v>2</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C98" s="15" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="D98" s="15"/>
       <c r="E98" s="15"/>
@@ -2591,15 +2594,13 @@
         <v>2</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C99" s="15" t="s">
         <v>88</v>
       </c>
       <c r="D99" s="15"/>
-      <c r="E99" s="15" t="s">
-        <v>125</v>
-      </c>
+      <c r="E99" s="15"/>
       <c r="F99" s="5"/>
     </row>
     <row r="100" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2607,19 +2608,27 @@
         <v>2</v>
       </c>
       <c r="B100" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C100" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D100" s="15"/>
+      <c r="E100" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="F100" s="5"/>
+    </row>
+    <row r="101" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B101" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C100" s="15" t="s">
+      <c r="C101" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="D100" s="15"/>
-      <c r="E100" s="15"/>
-      <c r="F100" s="5"/>
-    </row>
-    <row r="101" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="15"/>
-      <c r="B101" s="15"/>
-      <c r="C101" s="15"/>
       <c r="D101" s="15"/>
       <c r="E101" s="15"/>
       <c r="F101" s="5"/>
@@ -2704,7 +2713,14 @@
       <c r="E111" s="15"/>
       <c r="F111" s="5"/>
     </row>
-    <row r="112" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="15"/>
+      <c r="B112" s="15"/>
+      <c r="C112" s="15"/>
+      <c r="D112" s="15"/>
+      <c r="E112" s="15"/>
+      <c r="F112" s="5"/>
+    </row>
     <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2765,6 +2781,7 @@
     <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/doc/_editable/Artifacts.xlsx
+++ b/doc/_editable/Artifacts.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="128">
   <si>
     <t>Notes</t>
   </si>
@@ -165,12 +165,6 @@
     <t>Hette denna något annat tidigare? Känner igen stora delar av koden</t>
   </si>
   <si>
-    <t>Adam lägg in det du gjort i denna</t>
-  </si>
-  <si>
-    <t>Mathias Bjurbäck, Viktor Edsand</t>
-  </si>
-  <si>
     <t>Adam Clark, Mathias Bjurbäck, Viktor Edsand</t>
   </si>
   <si>
@@ -409,6 +403,9 @@
   </si>
   <si>
     <t>User Stories Description</t>
+  </si>
+  <si>
+    <t>Not used anymore, using spinners instead. File deleted</t>
   </si>
 </sst>
 </file>
@@ -556,7 +553,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -623,6 +620,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1235,10 +1235,10 @@
   <dimension ref="A1:G173"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C9" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C82" sqref="C82"/>
+      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1264,10 +1264,10 @@
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>41</v>
@@ -1279,13 +1279,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -1464,18 +1464,18 @@
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="5" t="s">
+      <c r="A15" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5" t="s">
-        <v>47</v>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25" t="s">
+        <v>127</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="3"/>
@@ -1488,7 +1488,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="3"/>
@@ -1535,7 +1535,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -1561,7 +1561,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -1576,7 +1576,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -1591,7 +1591,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -1617,10 +1617,10 @@
         <v>23</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -1634,7 +1634,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -1649,7 +1649,7 @@
         <v>25</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -1664,7 +1664,7 @@
         <v>26</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -1690,7 +1690,7 @@
         <v>28</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -1705,7 +1705,7 @@
         <v>29</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -1720,7 +1720,7 @@
         <v>30</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -1735,7 +1735,7 @@
         <v>31</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -1774,7 +1774,7 @@
         <v>34</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -1800,7 +1800,7 @@
         <v>36</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -1828,7 +1828,7 @@
     </row>
     <row r="41" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F41" s="5"/>
     </row>
@@ -1837,7 +1837,7 @@
         <v>2</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>40</v>
@@ -1849,7 +1849,7 @@
         <v>2</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>43</v>
@@ -1861,13 +1861,13 @@
         <v>2</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>43</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F44" s="5"/>
     </row>
@@ -1876,7 +1876,7 @@
         <v>2</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>40</v>
@@ -1888,10 +1888,10 @@
         <v>2</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
@@ -1902,7 +1902,7 @@
         <v>2</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C47" s="15" t="s">
         <v>40</v>
@@ -1916,7 +1916,7 @@
         <v>2</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>44</v>
@@ -1933,7 +1933,7 @@
     </row>
     <row r="50" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B50" s="22"/>
       <c r="C50" s="22"/>
@@ -1944,10 +1944,10 @@
     <row r="51" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
       <c r="B51" s="22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D51" s="22"/>
       <c r="E51" s="22"/>
@@ -1956,10 +1956,10 @@
     <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="5"/>
       <c r="B52" s="15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D52" s="15"/>
       <c r="E52" s="15"/>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B54" s="15"/>
       <c r="C54" s="15"/>
@@ -1988,14 +1988,14 @@
         <v>2</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C55" s="15" t="s">
         <v>43</v>
       </c>
       <c r="D55" s="15"/>
       <c r="E55" s="15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F55" s="5"/>
     </row>
@@ -2004,10 +2004,10 @@
         <v>2</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D56" s="15"/>
       <c r="E56" s="15"/>
@@ -2024,7 +2024,7 @@
     </row>
     <row r="58" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B58" s="15"/>
       <c r="C58" s="15"/>
@@ -2038,10 +2038,10 @@
         <v>2</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D59" s="15"/>
       <c r="E59" s="15"/>
@@ -2053,10 +2053,10 @@
         <v>2</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D60" s="15"/>
       <c r="E60" s="15"/>
@@ -2068,14 +2068,14 @@
         <v>2</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D61" s="20"/>
       <c r="E61" s="20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F61" s="5"/>
     </row>
@@ -2089,7 +2089,7 @@
     </row>
     <row r="63" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B63" s="15"/>
       <c r="C63" s="15"/>
@@ -2102,7 +2102,7 @@
         <v>2</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C64" s="15" t="s">
         <v>44</v>
@@ -2116,7 +2116,7 @@
         <v>2</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C65" s="15" t="s">
         <v>43</v>
@@ -2130,7 +2130,7 @@
         <v>2</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C66" s="15" t="s">
         <v>43</v>
@@ -2144,7 +2144,7 @@
         <v>2</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C67" s="15" t="s">
         <v>44</v>
@@ -2158,10 +2158,10 @@
         <v>2</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D68" s="15"/>
       <c r="E68" s="15"/>
@@ -2172,10 +2172,10 @@
         <v>2</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D69" s="15"/>
       <c r="E69" s="15"/>
@@ -2186,7 +2186,7 @@
         <v>2</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C70" s="15" t="s">
         <v>40</v>
@@ -2200,7 +2200,7 @@
         <v>2</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C71" s="15" t="s">
         <v>43</v>
@@ -2214,14 +2214,14 @@
         <v>2</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C72" s="15" t="s">
         <v>43</v>
       </c>
       <c r="D72" s="15"/>
       <c r="E72" s="15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F72" s="5"/>
     </row>
@@ -2230,7 +2230,7 @@
         <v>2</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C73" s="15" t="s">
         <v>42</v>
@@ -2244,10 +2244,10 @@
         <v>2</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D74" s="15"/>
       <c r="E74" s="15"/>
@@ -2258,10 +2258,10 @@
         <v>2</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D75" s="15"/>
       <c r="E75" s="15"/>
@@ -2272,7 +2272,7 @@
         <v>2</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C76" s="15" t="s">
         <v>43</v>
@@ -2286,7 +2286,7 @@
         <v>2</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C77" s="15" t="s">
         <v>40</v>
@@ -2302,7 +2302,7 @@
         <v>2</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C78" s="15" t="s">
         <v>44</v>
@@ -2316,14 +2316,14 @@
         <v>2</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C79" s="15" t="s">
         <v>43</v>
       </c>
       <c r="D79" s="15"/>
       <c r="E79" s="15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F79" s="5"/>
     </row>
@@ -2332,7 +2332,7 @@
         <v>2</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C80" s="15" t="s">
         <v>44</v>
@@ -2346,7 +2346,7 @@
         <v>2</v>
       </c>
       <c r="B81" s="22" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C81" s="22" t="s">
         <v>43</v>
@@ -2360,10 +2360,10 @@
         <v>2</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D82" s="15"/>
       <c r="E82" s="15"/>
@@ -2379,7 +2379,7 @@
     </row>
     <row r="84" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B84" s="15"/>
       <c r="C84" s="15"/>
@@ -2392,17 +2392,17 @@
         <v>2</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D85" s="15"/>
       <c r="E85" s="15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F85" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2410,13 +2410,13 @@
         <v>2</v>
       </c>
       <c r="B86" s="22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C86" s="22" t="s">
         <v>43</v>
       </c>
       <c r="D86" s="22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E86" s="22"/>
       <c r="F86" s="21"/>
@@ -2426,14 +2426,14 @@
         <v>2</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D87" s="15"/>
       <c r="E87" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F87" s="5"/>
     </row>
@@ -2442,14 +2442,14 @@
         <v>2</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D88" s="15"/>
       <c r="E88" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F88" s="5"/>
     </row>
@@ -2458,14 +2458,14 @@
         <v>2</v>
       </c>
       <c r="B89" s="22" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D89" s="22"/>
       <c r="E89" s="22" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F89" s="21"/>
     </row>
@@ -2474,16 +2474,16 @@
         <v>2</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D90" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E90" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F90" s="5"/>
     </row>
@@ -2497,7 +2497,7 @@
     </row>
     <row r="92" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B92" s="15"/>
       <c r="C92" s="15"/>
@@ -2510,10 +2510,10 @@
         <v>2</v>
       </c>
       <c r="B93" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C93" s="15" t="s">
         <v>86</v>
-      </c>
-      <c r="C93" s="15" t="s">
-        <v>88</v>
       </c>
       <c r="D93" s="15"/>
       <c r="E93" s="15"/>
@@ -2524,7 +2524,7 @@
         <v>2</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C94" s="15" t="s">
         <v>44</v>
@@ -2538,7 +2538,7 @@
         <v>2</v>
       </c>
       <c r="B95" s="22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C95" s="22" t="s">
         <v>43</v>
@@ -2552,10 +2552,10 @@
         <v>2</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C96" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D96" s="15"/>
       <c r="E96" s="15"/>
@@ -2566,10 +2566,10 @@
         <v>2</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D97" s="15"/>
       <c r="E97" s="15"/>
@@ -2580,7 +2580,7 @@
         <v>2</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C98" s="15" t="s">
         <v>43</v>
@@ -2594,10 +2594,10 @@
         <v>2</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D99" s="15"/>
       <c r="E99" s="15"/>
@@ -2608,14 +2608,14 @@
         <v>2</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C100" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D100" s="15"/>
       <c r="E100" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F100" s="5"/>
     </row>
@@ -2624,10 +2624,10 @@
         <v>2</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C101" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D101" s="15"/>
       <c r="E101" s="15"/>

--- a/doc/_editable/Artifacts.xlsx
+++ b/doc/_editable/Artifacts.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14128"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\WYSIWYD\doc\_editable\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22220"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="MyBar Artifacts" sheetId="1" r:id="rId1"/>
@@ -17,12 +12,17 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'MyBar Artifacts'!$A$1:$E$60</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="130">
   <si>
     <t>Notes</t>
   </si>
@@ -159,12 +159,6 @@
     <t>Viktor Edsand</t>
   </si>
   <si>
-    <t xml:space="preserve">Adam Clark? </t>
-  </si>
-  <si>
-    <t>Hette denna något annat tidigare? Känner igen stora delar av koden</t>
-  </si>
-  <si>
     <t>Adam Clark, Mathias Bjurbäck, Viktor Edsand</t>
   </si>
   <si>
@@ -228,9 +222,6 @@
     <t>Acceptance Test</t>
   </si>
   <si>
-    <t>allowed_handin_formats</t>
-  </si>
-  <si>
     <t>Build Procedure</t>
   </si>
   <si>
@@ -288,9 +279,6 @@
     <t>Meetings</t>
   </si>
   <si>
-    <t>Sunday Meeting</t>
-  </si>
-  <si>
     <t>Notes 2</t>
   </si>
   <si>
@@ -318,9 +306,6 @@
     <t>This session was often 6-10 hours straight</t>
   </si>
   <si>
-    <t>Artifacts</t>
-  </si>
-  <si>
     <t>SQL-data</t>
   </si>
   <si>
@@ -333,9 +318,6 @@
     <t>Mailflow (Production)</t>
   </si>
   <si>
-    <t>Mailflow (Set up)</t>
-  </si>
-  <si>
     <t>Sharepoint (Set up)</t>
   </si>
   <si>
@@ -357,27 +339,15 @@
     <t>Robotium Testing</t>
   </si>
   <si>
-    <t>Install and Use GitHub</t>
-  </si>
-  <si>
     <t>Kom ihåg att skriva!!</t>
   </si>
   <si>
-    <t>Written in Swedish. Very comprehensive with screenshots et cetera</t>
-  </si>
-  <si>
     <t>Database Testing</t>
   </si>
   <si>
-    <t>GUI/Logics Testing</t>
-  </si>
-  <si>
     <t>Mostly with robotium</t>
   </si>
   <si>
-    <t>Sunday Meeting Notes and Chairman</t>
-  </si>
-  <si>
     <t>GitHub (Preparation and Installation)</t>
   </si>
   <si>
@@ -387,32 +357,68 @@
     <t>Layout</t>
   </si>
   <si>
-    <t>Logics</t>
-  </si>
-  <si>
     <t>Dag Fridén, Mathias Karlgren</t>
   </si>
   <si>
-    <t>We tried to use SharePoint the first half of the project, to set up meetings et cetera</t>
-  </si>
-  <si>
     <t>Mailflow (correspondence)</t>
   </si>
   <si>
     <t>Well over 300 mails!</t>
   </si>
   <si>
-    <t>User Stories Description</t>
-  </si>
-  <si>
     <t>Not used anymore, using spinners instead. File deleted</t>
+  </si>
+  <si>
+    <t>Logic</t>
+  </si>
+  <si>
+    <t>GUI Testing</t>
+  </si>
+  <si>
+    <t>Sunday Meeting Notes</t>
+  </si>
+  <si>
+    <t>Sunday Meeting Chairman</t>
+  </si>
+  <si>
+    <t>Tuesday Meeting</t>
+  </si>
+  <si>
+    <t>Mathias Bjurbäck, Viktor Edsand, Dag Fridén</t>
+  </si>
+  <si>
+    <t>Wednesday Meeting</t>
+  </si>
+  <si>
+    <t>SharePoint was used as a platform to book meetings, edit documents, add "todo" tasks…etc</t>
+  </si>
+  <si>
+    <t>User Stories</t>
+  </si>
+  <si>
+    <t>Sunday Meeting (VoIP)</t>
+  </si>
+  <si>
+    <t>Sprint Backlog</t>
+  </si>
+  <si>
+    <t>Sprint Planning</t>
+  </si>
+  <si>
+    <t>This session was about 5 hours long</t>
+  </si>
+  <si>
+    <t>Mathias Bjurbäck, Viktor Edsand, Dag Fridén, Mathias Karlgren</t>
+  </si>
+  <si>
+    <t>Viktor Edsand, Mathias Karlgren</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -471,6 +477,18 @@
       <sz val="10"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -550,8 +568,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -615,17 +637,21 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
@@ -929,8 +955,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:F112" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A2:F112"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:F113" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A2:F113"/>
   <tableColumns count="6">
     <tableColumn id="1" name="General Context" dataDxfId="5"/>
     <tableColumn id="2" name="Particular Context" dataDxfId="4"/>
@@ -1228,46 +1254,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.79998168889431442"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G173"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C53" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomRight" activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="39.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="66.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.5703125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="71.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="39.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="33.1640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="66.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="71.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="6" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:7" s="6" customFormat="1" ht="39.75" customHeight="1">
+      <c r="A1" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="25"/>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>41</v>
@@ -1279,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="13">
       <c r="A3" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -1294,7 +1320,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="12" t="s">
         <v>1</v>
       </c>
@@ -1305,7 +1331,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="11" t="s">
         <v>2</v>
       </c>
@@ -1320,7 +1346,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="11" t="s">
         <v>2</v>
       </c>
@@ -1335,7 +1361,7 @@
       <c r="F6" s="5"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="11" t="s">
         <v>2</v>
       </c>
@@ -1350,7 +1376,7 @@
       <c r="F7" s="5"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="11" t="s">
         <v>2</v>
       </c>
@@ -1360,14 +1386,12 @@
       <c r="C8" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="11" t="s">
         <v>2</v>
       </c>
@@ -1382,7 +1406,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" s="11" t="s">
         <v>2</v>
       </c>
@@ -1390,16 +1414,14 @@
         <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>44</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D10" s="15"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="A11" s="11" t="s">
         <v>2</v>
       </c>
@@ -1414,7 +1436,7 @@
       <c r="F11" s="5"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="A12" s="11" t="s">
         <v>2</v>
       </c>
@@ -1424,16 +1446,12 @@
       <c r="C12" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="A13" s="11" t="s">
         <v>2</v>
       </c>
@@ -1441,14 +1459,14 @@
         <v>11</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" s="11" t="s">
         <v>2</v>
       </c>
@@ -1463,24 +1481,24 @@
       <c r="F14" s="5"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="A15" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25" t="s">
-        <v>127</v>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23" t="s">
+        <v>114</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="A16" s="11" t="s">
         <v>2</v>
       </c>
@@ -1488,14 +1506,14 @@
         <v>14</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="A17" s="11" t="s">
         <v>2</v>
       </c>
@@ -1507,12 +1525,12 @@
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" s="11" t="s">
         <v>2</v>
       </c>
@@ -1527,7 +1545,7 @@
       <c r="F18" s="5"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="A19" s="11" t="s">
         <v>2</v>
       </c>
@@ -1535,14 +1553,14 @@
         <v>17</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="A20" s="12" t="s">
         <v>18</v>
       </c>
@@ -1553,7 +1571,7 @@
       <c r="F20" s="5"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="A21" s="11" t="s">
         <v>2</v>
       </c>
@@ -1561,14 +1579,14 @@
         <v>19</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="A22" s="11" t="s">
         <v>2</v>
       </c>
@@ -1576,14 +1594,14 @@
         <v>20</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1">
       <c r="A23" s="11" t="s">
         <v>2</v>
       </c>
@@ -1591,14 +1609,14 @@
         <v>21</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1">
       <c r="A24" s="12" t="s">
         <v>22</v>
       </c>
@@ -1609,7 +1627,7 @@
       <c r="F24" s="5"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1">
       <c r="A25" s="11" t="s">
         <v>2</v>
       </c>
@@ -1617,16 +1635,16 @@
         <v>23</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1">
       <c r="A26" s="11" t="s">
         <v>2</v>
       </c>
@@ -1634,14 +1652,14 @@
         <v>24</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1">
       <c r="A27" s="11" t="s">
         <v>2</v>
       </c>
@@ -1649,14 +1667,14 @@
         <v>25</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1">
       <c r="A28" s="11" t="s">
         <v>2</v>
       </c>
@@ -1664,14 +1682,14 @@
         <v>26</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="15.75" customHeight="1">
       <c r="A29" s="12" t="s">
         <v>27</v>
       </c>
@@ -1682,7 +1700,7 @@
       <c r="F29" s="5"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="15.75" customHeight="1">
       <c r="A30" s="11" t="s">
         <v>2</v>
       </c>
@@ -1690,14 +1708,14 @@
         <v>28</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="15.75" customHeight="1">
       <c r="A31" s="11" t="s">
         <v>2</v>
       </c>
@@ -1705,14 +1723,14 @@
         <v>29</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="15.75" customHeight="1">
       <c r="A32" s="11" t="s">
         <v>2</v>
       </c>
@@ -1720,14 +1738,14 @@
         <v>30</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="15.75" customHeight="1">
       <c r="A33" s="11" t="s">
         <v>2</v>
       </c>
@@ -1735,27 +1753,29 @@
         <v>31</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="15.75" customHeight="1">
       <c r="A34" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="5"/>
+      <c r="C34" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="15.75" customHeight="1">
       <c r="A35" s="13" t="s">
         <v>33</v>
       </c>
@@ -1766,7 +1786,7 @@
       <c r="F35" s="5"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="15.75" customHeight="1">
       <c r="A36" s="11" t="s">
         <v>2</v>
       </c>
@@ -1774,14 +1794,14 @@
         <v>34</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="15.75" customHeight="1">
       <c r="A37" s="13" t="s">
         <v>35</v>
       </c>
@@ -1792,7 +1812,7 @@
       <c r="F37" s="5"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="15.75" customHeight="1">
       <c r="A38" s="11" t="s">
         <v>2</v>
       </c>
@@ -1800,14 +1820,14 @@
         <v>36</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="15.75" customHeight="1">
       <c r="A39" s="11" t="s">
         <v>2</v>
       </c>
@@ -1822,87 +1842,87 @@
       <c r="F39" s="5"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="15.75" customHeight="1">
       <c r="F40" s="5"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="13">
       <c r="A41" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F41" s="5"/>
     </row>
-    <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="15.75" customHeight="1">
       <c r="A42" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F42" s="5"/>
     </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="15" customHeight="1">
       <c r="A43" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>43</v>
       </c>
       <c r="F43" s="5"/>
     </row>
-    <row r="44" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="17.25" customHeight="1">
       <c r="A44" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>43</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F44" s="5"/>
     </row>
-    <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="15.75" customHeight="1">
       <c r="A45" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F45" s="5"/>
     </row>
-    <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="15.75" customHeight="1">
       <c r="A46" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
       <c r="F46" s="5"/>
     </row>
-    <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="15.75" customHeight="1">
       <c r="A47" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C47" s="15" t="s">
         <v>40</v>
@@ -1911,19 +1931,19 @@
       <c r="E47" s="15"/>
       <c r="F47" s="5"/>
     </row>
-    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="15.75" customHeight="1">
       <c r="A48" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F48" s="5"/>
     </row>
-    <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="15.75" customHeight="1">
       <c r="A49" s="21"/>
       <c r="B49" s="22"/>
       <c r="C49" s="22"/>
@@ -1931,9 +1951,9 @@
       <c r="E49" s="22"/>
       <c r="F49" s="21"/>
     </row>
-    <row r="50" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="15.75" customHeight="1">
       <c r="A50" s="14" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B50" s="22"/>
       <c r="C50" s="22"/>
@@ -1941,31 +1961,31 @@
       <c r="E50" s="22"/>
       <c r="F50" s="21"/>
     </row>
-    <row r="51" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" ht="15.75" customHeight="1">
       <c r="A51" s="21"/>
       <c r="B51" s="22" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D51" s="22"/>
       <c r="E51" s="22"/>
       <c r="F51" s="21"/>
     </row>
-    <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="15.75" customHeight="1">
       <c r="A52" s="5"/>
       <c r="B52" s="15" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D52" s="15"/>
       <c r="E52" s="15"/>
       <c r="F52" s="5"/>
     </row>
-    <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" ht="15.75" customHeight="1">
       <c r="A53" s="21"/>
       <c r="B53" s="22"/>
       <c r="C53" s="22"/>
@@ -1973,9 +1993,9 @@
       <c r="E53" s="22"/>
       <c r="F53" s="21"/>
     </row>
-    <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="15.75" customHeight="1">
       <c r="A54" s="14" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B54" s="15"/>
       <c r="C54" s="15"/>
@@ -1983,37 +2003,37 @@
       <c r="E54" s="15"/>
       <c r="F54" s="5"/>
     </row>
-    <row r="55" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" ht="15.75" customHeight="1">
       <c r="A55" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C55" s="15" t="s">
         <v>43</v>
       </c>
       <c r="D55" s="15"/>
       <c r="E55" s="15" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="F55" s="5"/>
     </row>
-    <row r="56" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" ht="15.75" customHeight="1">
       <c r="A56" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D56" s="15"/>
       <c r="E56" s="15"/>
       <c r="F56" s="5"/>
     </row>
-    <row r="57" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" ht="15.75" customHeight="1">
       <c r="A57" s="15"/>
       <c r="B57" s="15"/>
       <c r="C57" s="15"/>
@@ -2022,9 +2042,9 @@
       <c r="F57" s="5"/>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="15.75" customHeight="1">
       <c r="A58" s="17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B58" s="15"/>
       <c r="C58" s="15"/>
@@ -2033,53 +2053,53 @@
       <c r="F58" s="5"/>
       <c r="G58" s="3"/>
     </row>
-    <row r="59" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" ht="15.75" customHeight="1">
       <c r="A59" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D59" s="15"/>
       <c r="E59" s="15"/>
       <c r="F59" s="5"/>
       <c r="G59" s="3"/>
     </row>
-    <row r="60" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" ht="15.75" customHeight="1">
       <c r="A60" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D60" s="15"/>
       <c r="E60" s="15"/>
       <c r="F60" s="5"/>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" ht="15.75" customHeight="1">
       <c r="A61" s="19" t="s">
         <v>2</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D61" s="20"/>
       <c r="E61" s="20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F61" s="5"/>
     </row>
-    <row r="62" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" ht="15.75" customHeight="1">
       <c r="A62" s="15"/>
       <c r="B62" s="15"/>
       <c r="C62" s="15"/>
@@ -2087,9 +2107,9 @@
       <c r="E62" s="15"/>
       <c r="F62" s="5"/>
     </row>
-    <row r="63" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="15.75" customHeight="1">
       <c r="A63" s="17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B63" s="15"/>
       <c r="C63" s="15"/>
@@ -2097,12 +2117,12 @@
       <c r="E63" s="15"/>
       <c r="F63" s="5"/>
     </row>
-    <row r="64" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" ht="15.75" customHeight="1">
       <c r="A64" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C64" s="15" t="s">
         <v>44</v>
@@ -2111,82 +2131,82 @@
       <c r="E64" s="15"/>
       <c r="F64" s="5"/>
     </row>
-    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" ht="15.75" customHeight="1">
       <c r="A65" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D65" s="15"/>
       <c r="E65" s="15"/>
       <c r="F65" s="5"/>
     </row>
-    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" ht="15.75" customHeight="1">
       <c r="A66" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
       <c r="F66" s="5"/>
     </row>
-    <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" ht="15.75" customHeight="1">
       <c r="A67" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D67" s="15"/>
       <c r="E67" s="15"/>
       <c r="F67" s="5"/>
     </row>
-    <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" ht="15.75" customHeight="1">
       <c r="A68" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D68" s="15"/>
       <c r="E68" s="15"/>
       <c r="F68" s="5"/>
     </row>
-    <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" ht="15.75" customHeight="1">
       <c r="A69" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D69" s="15"/>
       <c r="E69" s="15"/>
       <c r="F69" s="5"/>
     </row>
-    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" ht="15.75" customHeight="1">
       <c r="A70" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C70" s="15" t="s">
         <v>40</v>
@@ -2195,453 +2215,463 @@
       <c r="E70" s="15"/>
       <c r="F70" s="5"/>
     </row>
-    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" ht="15.75" customHeight="1">
       <c r="A71" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D71" s="15"/>
       <c r="E71" s="15"/>
       <c r="F71" s="5"/>
     </row>
-    <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" ht="15.75" customHeight="1">
       <c r="A72" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D72" s="15"/>
-      <c r="E72" s="15" t="s">
-        <v>113</v>
-      </c>
+      <c r="E72" s="15"/>
       <c r="F72" s="5"/>
     </row>
-    <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" ht="15.75" customHeight="1">
       <c r="A73" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D73" s="15"/>
       <c r="E73" s="15"/>
       <c r="F73" s="5"/>
     </row>
-    <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" ht="15.75" customHeight="1">
       <c r="A74" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D74" s="15"/>
       <c r="E74" s="15"/>
       <c r="F74" s="5"/>
     </row>
-    <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" ht="15.75" customHeight="1">
       <c r="A75" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="D75" s="15"/>
       <c r="E75" s="15"/>
       <c r="F75" s="5"/>
     </row>
-    <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" ht="15.75" customHeight="1">
       <c r="A76" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D76" s="15"/>
+        <v>40</v>
+      </c>
+      <c r="D76" s="15" t="s">
+        <v>129</v>
+      </c>
       <c r="E76" s="15"/>
       <c r="F76" s="5"/>
     </row>
-    <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" ht="15.75" customHeight="1">
       <c r="A77" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D77" s="15" t="s">
         <v>44</v>
       </c>
+      <c r="D77" s="15"/>
       <c r="E77" s="15"/>
       <c r="F77" s="5"/>
     </row>
-    <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" ht="15.75" customHeight="1">
       <c r="A78" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="C78" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F78" s="5"/>
+    </row>
+    <row r="79" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A79" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B79" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C79" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D78" s="15"/>
-      <c r="E78" s="15"/>
-      <c r="F78" s="5"/>
-    </row>
-    <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B79" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="C79" s="15" t="s">
-        <v>43</v>
-      </c>
       <c r="D79" s="15"/>
-      <c r="E79" s="15" t="s">
-        <v>112</v>
-      </c>
+      <c r="E79" s="15"/>
       <c r="F79" s="5"/>
     </row>
-    <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" ht="15.75" customHeight="1">
       <c r="A80" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D80" s="15"/>
-      <c r="E80" s="15"/>
-      <c r="F80" s="5"/>
-    </row>
-    <row r="81" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="D80" s="22"/>
+      <c r="E80" s="22"/>
+      <c r="F80" s="21"/>
+    </row>
+    <row r="81" spans="1:6" ht="15.75" customHeight="1">
       <c r="A81" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B81" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="C81" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D81" s="22"/>
-      <c r="E81" s="22"/>
-      <c r="F81" s="21"/>
-    </row>
-    <row r="82" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B82" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C82" s="15" t="s">
-        <v>62</v>
-      </c>
+      <c r="B81" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C81" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D81" s="15"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="5"/>
+    </row>
+    <row r="82" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A82" s="15"/>
+      <c r="B82" s="15"/>
+      <c r="C82" s="15"/>
       <c r="D82" s="15"/>
       <c r="E82" s="15"/>
       <c r="F82" s="5"/>
     </row>
-    <row r="83" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="15"/>
+    <row r="83" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A83" s="17" t="s">
+        <v>84</v>
+      </c>
       <c r="B83" s="15"/>
       <c r="C83" s="15"/>
       <c r="D83" s="15"/>
       <c r="E83" s="15"/>
       <c r="F83" s="5"/>
     </row>
-    <row r="84" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="17" t="s">
+    <row r="84" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A84" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B84" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C84" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D84" s="15"/>
+      <c r="E84" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="B84" s="15"/>
-      <c r="C84" s="15"/>
-      <c r="D84" s="15"/>
-      <c r="E84" s="15"/>
-      <c r="F84" s="5"/>
-    </row>
-    <row r="85" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F84" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="15.75" customHeight="1">
       <c r="A85" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B85" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C85" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D85" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="E85" s="22"/>
+      <c r="F85" s="21"/>
+    </row>
+    <row r="86" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A86" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B86" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C86" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D86" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E86" s="15"/>
+      <c r="F86" s="5"/>
+    </row>
+    <row r="87" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A87" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B87" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C85" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="D85" s="15"/>
-      <c r="E85" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F85" s="15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B86" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="C86" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D86" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="E86" s="22"/>
-      <c r="F86" s="21"/>
-    </row>
-    <row r="87" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B87" s="15" t="s">
-        <v>92</v>
-      </c>
       <c r="C87" s="15" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D87" s="15"/>
       <c r="E87" s="15" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F87" s="5"/>
     </row>
-    <row r="88" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" ht="15.75" customHeight="1">
       <c r="A88" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="D88" s="15"/>
       <c r="E88" s="15" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="F88" s="5"/>
     </row>
-    <row r="89" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" ht="15.75" customHeight="1">
       <c r="A89" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B89" s="22" t="s">
-        <v>124</v>
+      <c r="B89" s="15" t="s">
+        <v>121</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="D89" s="22"/>
-      <c r="E89" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="F89" s="21"/>
-    </row>
-    <row r="90" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+      <c r="D89" s="15"/>
+      <c r="E89" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F89" s="5"/>
+    </row>
+    <row r="90" spans="1:6" ht="15.75" customHeight="1">
       <c r="A90" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="D90" s="15" t="s">
-        <v>82</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="D90" s="15"/>
       <c r="E90" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F90" s="5"/>
     </row>
-    <row r="91" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="15"/>
-      <c r="B91" s="15"/>
-      <c r="C91" s="15"/>
-      <c r="D91" s="15"/>
-      <c r="E91" s="15"/>
-      <c r="F91" s="5"/>
-    </row>
-    <row r="92" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="17" t="s">
+    <row r="91" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A91" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B91" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C91" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B92" s="15"/>
-      <c r="C92" s="15"/>
-      <c r="D92" s="15"/>
-      <c r="E92" s="15"/>
+      <c r="D91" s="22"/>
+      <c r="E91" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="F91" s="21"/>
+    </row>
+    <row r="92" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A92" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B92" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C92" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D92" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E92" s="15" t="s">
+        <v>91</v>
+      </c>
       <c r="F92" s="5"/>
     </row>
-    <row r="93" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B93" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C93" s="15" t="s">
-        <v>86</v>
-      </c>
+    <row r="93" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A93" s="15"/>
+      <c r="B93" s="15"/>
+      <c r="C93" s="15"/>
       <c r="D93" s="15"/>
       <c r="E93" s="15"/>
       <c r="F93" s="5"/>
     </row>
-    <row r="94" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B94" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="C94" s="15" t="s">
-        <v>44</v>
-      </c>
+    <row r="94" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A94" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B94" s="15"/>
+      <c r="C94" s="15"/>
       <c r="D94" s="15"/>
       <c r="E94" s="15"/>
       <c r="F94" s="5"/>
     </row>
-    <row r="95" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" ht="15.75" customHeight="1">
       <c r="A95" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B95" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="C95" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D95" s="22"/>
-      <c r="E95" s="22"/>
-      <c r="F95" s="21"/>
-    </row>
-    <row r="96" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B95" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C95" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D95" s="15"/>
+      <c r="E95" s="15"/>
+      <c r="F95" s="5"/>
+    </row>
+    <row r="96" spans="1:6" ht="15.75" customHeight="1">
       <c r="A96" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="C96" s="15" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="D96" s="15"/>
       <c r="E96" s="15"/>
       <c r="F96" s="5"/>
     </row>
-    <row r="97" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" ht="15.75" customHeight="1">
       <c r="A97" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B97" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C97" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D97" s="15"/>
-      <c r="E97" s="15"/>
-      <c r="F97" s="5"/>
-    </row>
-    <row r="98" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B97" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C97" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D97" s="22"/>
+      <c r="E97" s="22"/>
+      <c r="F97" s="21"/>
+    </row>
+    <row r="98" spans="1:6" ht="15.75" customHeight="1">
       <c r="A98" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C98" s="15" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="D98" s="15"/>
       <c r="E98" s="15"/>
       <c r="F98" s="5"/>
     </row>
-    <row r="99" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" ht="15.75" customHeight="1">
       <c r="A99" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="D99" s="15"/>
       <c r="E99" s="15"/>
       <c r="F99" s="5"/>
     </row>
-    <row r="100" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" ht="15.75" customHeight="1">
       <c r="A100" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C100" s="15" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D100" s="15"/>
-      <c r="E100" s="15" t="s">
-        <v>123</v>
-      </c>
+      <c r="E100" s="15"/>
       <c r="F100" s="5"/>
     </row>
-    <row r="101" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" ht="15.75" customHeight="1">
       <c r="A101" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C101" s="15" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="D101" s="15"/>
-      <c r="E101" s="15"/>
+      <c r="E101" s="15" t="s">
+        <v>122</v>
+      </c>
       <c r="F101" s="5"/>
     </row>
-    <row r="102" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="15"/>
-      <c r="B102" s="15"/>
-      <c r="C102" s="15"/>
+    <row r="102" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A102" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B102" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C102" s="15" t="s">
+        <v>96</v>
+      </c>
       <c r="D102" s="15"/>
       <c r="E102" s="15"/>
       <c r="F102" s="5"/>
     </row>
-    <row r="103" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" ht="15.75" customHeight="1">
       <c r="A103" s="15"/>
       <c r="B103" s="15"/>
       <c r="C103" s="15"/>
@@ -2649,7 +2679,7 @@
       <c r="E103" s="15"/>
       <c r="F103" s="5"/>
     </row>
-    <row r="104" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" ht="15.75" customHeight="1">
       <c r="A104" s="15"/>
       <c r="B104" s="15"/>
       <c r="C104" s="15"/>
@@ -2657,7 +2687,7 @@
       <c r="E104" s="15"/>
       <c r="F104" s="5"/>
     </row>
-    <row r="105" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" ht="15.75" customHeight="1">
       <c r="A105" s="15"/>
       <c r="B105" s="15"/>
       <c r="C105" s="15"/>
@@ -2665,7 +2695,7 @@
       <c r="E105" s="15"/>
       <c r="F105" s="5"/>
     </row>
-    <row r="106" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" ht="15.75" customHeight="1">
       <c r="A106" s="15"/>
       <c r="B106" s="15"/>
       <c r="C106" s="15"/>
@@ -2673,7 +2703,7 @@
       <c r="E106" s="15"/>
       <c r="F106" s="5"/>
     </row>
-    <row r="107" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" ht="15.75" customHeight="1">
       <c r="A107" s="15"/>
       <c r="B107" s="15"/>
       <c r="C107" s="15"/>
@@ -2681,7 +2711,7 @@
       <c r="E107" s="15"/>
       <c r="F107" s="5"/>
     </row>
-    <row r="108" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" ht="15.75" customHeight="1">
       <c r="A108" s="15"/>
       <c r="B108" s="15"/>
       <c r="C108" s="15"/>
@@ -2689,7 +2719,7 @@
       <c r="E108" s="15"/>
       <c r="F108" s="5"/>
     </row>
-    <row r="109" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" ht="15.75" customHeight="1">
       <c r="A109" s="15"/>
       <c r="B109" s="15"/>
       <c r="C109" s="15"/>
@@ -2697,7 +2727,7 @@
       <c r="E109" s="15"/>
       <c r="F109" s="5"/>
     </row>
-    <row r="110" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" ht="15.75" customHeight="1">
       <c r="A110" s="15"/>
       <c r="B110" s="15"/>
       <c r="C110" s="15"/>
@@ -2705,7 +2735,7 @@
       <c r="E110" s="15"/>
       <c r="F110" s="5"/>
     </row>
-    <row r="111" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" ht="15.75" customHeight="1">
       <c r="A111" s="15"/>
       <c r="B111" s="15"/>
       <c r="C111" s="15"/>
@@ -2713,7 +2743,7 @@
       <c r="E111" s="15"/>
       <c r="F111" s="5"/>
     </row>
-    <row r="112" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" ht="15.75" customHeight="1">
       <c r="A112" s="15"/>
       <c r="B112" s="15"/>
       <c r="C112" s="15"/>
@@ -2721,67 +2751,74 @@
       <c r="E112" s="15"/>
       <c r="F112" s="5"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A113" s="15"/>
+      <c r="B113" s="15"/>
+      <c r="C113" s="15"/>
+      <c r="D113" s="15"/>
+      <c r="E113" s="15"/>
+      <c r="F113" s="5"/>
+    </row>
+    <row r="114" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="115" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="116" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="117" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="118" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="119" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="120" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="121" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="122" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="123" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="124" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="125" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="126" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="127" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="128" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
@@ -2789,11 +2826,16 @@
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.71" right="0.71" top="0.71" bottom="0.71" header="0.5" footer="0.5"/>
-  <pageSetup scale="47" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="47" fitToHeight="0" orientation="landscape"/>
   <headerFooter alignWithMargins="0"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 

--- a/doc/_editable/Artifacts.xlsx
+++ b/doc/_editable/Artifacts.xlsx
@@ -10,7 +10,7 @@
     <sheet name="MyBar Artifacts" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'MyBar Artifacts'!$A$1:$E$60</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'MyBar Artifacts'!$A$1:$E$59</definedName>
   </definedNames>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="127">
   <si>
     <t>Notes</t>
   </si>
@@ -63,9 +63,6 @@
     <t>MyFavoritesActivity.java</t>
   </si>
   <si>
-    <t>ProfilesActivity.java</t>
-  </si>
-  <si>
     <t>SettingsActivity.java</t>
   </si>
   <si>
@@ -180,9 +177,6 @@
     <t xml:space="preserve">tableCreate SQL </t>
   </si>
   <si>
-    <t>Ska den verkligen vara här?</t>
-  </si>
-  <si>
     <t>UX/XML Files</t>
   </si>
   <si>
@@ -330,9 +324,6 @@
     <t>Particular Context</t>
   </si>
   <si>
-    <t>Adam du kanske kan göra något i denna? Få in drink? Bara idé</t>
-  </si>
-  <si>
     <t>Testing</t>
   </si>
   <si>
@@ -366,9 +357,6 @@
     <t>Well over 300 mails!</t>
   </si>
   <si>
-    <t>Not used anymore, using spinners instead. File deleted</t>
-  </si>
-  <si>
     <t>Logic</t>
   </si>
   <si>
@@ -412,13 +400,16 @@
   </si>
   <si>
     <t>Viktor Edsand, Mathias Karlgren</t>
+  </si>
+  <si>
+    <t>User Stories Description</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -462,13 +453,6 @@
       <b/>
       <u/>
       <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -570,12 +554,12 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -626,18 +610,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1261,10 +1236,10 @@
   <dimension ref="A1:G173"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C53" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D77" sqref="D77"/>
+      <selection pane="bottomRight" activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1279,10 +1254,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="6" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A1" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="25"/>
+      <c r="A1" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="22"/>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
       <c r="E1" s="10"/>
@@ -1290,28 +1265,28 @@
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" s="2" customFormat="1" ht="13">
       <c r="A3" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -1339,7 +1314,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -1354,7 +1329,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -1369,7 +1344,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -1384,9 +1359,11 @@
         <v>6</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="5"/>
+        <v>39</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="3"/>
@@ -1399,7 +1376,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -1414,9 +1391,11 @@
         <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="15"/>
+        <v>42</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>43</v>
+      </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="3"/>
@@ -1429,7 +1408,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -1444,7 +1423,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -1459,7 +1438,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -1474,7 +1453,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -1482,19 +1461,17 @@
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A15" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="23" t="s">
+      <c r="A15" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23" t="s">
-        <v>114</v>
-      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="3"/>
     </row>
@@ -1506,7 +1483,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -1521,12 +1498,10 @@
         <v>15</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D17" s="5"/>
-      <c r="E17" s="5" t="s">
-        <v>102</v>
-      </c>
+      <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="3"/>
     </row>
@@ -1538,7 +1513,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -1546,26 +1521,26 @@
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A19" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="5" t="s">
+      <c r="A19" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>45</v>
-      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
+      <c r="C20" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -1579,7 +1554,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -1602,27 +1577,29 @@
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A23" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="5" t="s">
+      <c r="A23" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>47</v>
-      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
+      <c r="C24" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="3"/>
@@ -1635,11 +1612,9 @@
         <v>23</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="5" t="s">
         <v>46</v>
       </c>
+      <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="3"/>
@@ -1652,7 +1627,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -1667,7 +1642,7 @@
         <v>25</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -1675,26 +1650,26 @@
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A28" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" s="5" t="s">
+      <c r="A28" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>47</v>
-      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
+      <c r="C29" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -1708,7 +1683,7 @@
         <v>28</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -1723,7 +1698,7 @@
         <v>29</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -1738,7 +1713,7 @@
         <v>30</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -1753,7 +1728,7 @@
         <v>31</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -1761,52 +1736,52 @@
       <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A34" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B34" s="5" t="s">
+      <c r="A34" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>47</v>
-      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
+      <c r="C35" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="3"/>
     </row>
     <row r="36" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A36" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B36" s="5" t="s">
+      <c r="A36" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="3"/>
     </row>
     <row r="37" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
+      <c r="C37" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
@@ -1820,7 +1795,7 @@
         <v>36</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -1828,27 +1803,25 @@
       <c r="G38" s="3"/>
     </row>
     <row r="39" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A39" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="3"/>
     </row>
     <row r="40" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A40" s="16" t="s">
+        <v>51</v>
+      </c>
       <c r="F40" s="5"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7" ht="13">
-      <c r="A41" s="16" t="s">
-        <v>53</v>
+    <row r="41" spans="1:7">
+      <c r="A41" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="F41" s="5"/>
     </row>
@@ -1857,10 +1830,10 @@
         <v>2</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F42" s="5"/>
     </row>
@@ -1869,10 +1842,13 @@
         <v>2</v>
       </c>
       <c r="B43" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E43" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="F43" s="5"/>
     </row>
@@ -1884,10 +1860,7 @@
         <v>56</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="F44" s="5"/>
     </row>
@@ -1895,12 +1868,14 @@
       <c r="A45" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="B45" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
       <c r="F45" s="5"/>
     </row>
     <row r="46" spans="1:7" ht="15.75" customHeight="1">
@@ -1911,7 +1886,7 @@
         <v>59</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
@@ -1921,86 +1896,88 @@
       <c r="A47" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B47" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
+      <c r="B47" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="F47" s="5"/>
     </row>
     <row r="48" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A48" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C48" s="4" t="s">
+      <c r="A48" s="19"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="19"/>
+    </row>
+    <row r="49" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A49" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="19"/>
+    </row>
+    <row r="50" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A50" s="19"/>
+      <c r="B50" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="F48" s="5"/>
-    </row>
-    <row r="49" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A49" s="21"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="21"/>
-    </row>
-    <row r="50" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A50" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="21"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="19"/>
     </row>
     <row r="51" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A51" s="21"/>
-      <c r="B51" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="C51" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="21"/>
+      <c r="A51" s="5"/>
+      <c r="B51" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="5"/>
     </row>
     <row r="52" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A52" s="5"/>
-      <c r="B52" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="5"/>
+      <c r="A52" s="19"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="19"/>
     </row>
     <row r="53" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A53" s="21"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="21"/>
+      <c r="A53" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="5"/>
     </row>
     <row r="54" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A54" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
+      <c r="A54" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>42</v>
+      </c>
       <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
+      <c r="E54" s="15" t="s">
+        <v>104</v>
+      </c>
       <c r="F54" s="5"/>
     </row>
     <row r="55" spans="1:7" ht="15.75" customHeight="1">
@@ -2008,33 +1985,27 @@
         <v>2</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D55" s="15"/>
-      <c r="E55" s="15" t="s">
-        <v>107</v>
-      </c>
+      <c r="E55" s="15"/>
       <c r="F55" s="5"/>
     </row>
     <row r="56" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A56" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B56" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="C56" s="15" t="s">
-        <v>47</v>
-      </c>
+      <c r="A56" s="15"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
       <c r="D56" s="15"/>
       <c r="E56" s="15"/>
       <c r="F56" s="5"/>
     </row>
     <row r="57" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A57" s="15"/>
+      <c r="A57" s="17" t="s">
+        <v>61</v>
+      </c>
       <c r="B57" s="15"/>
       <c r="C57" s="15"/>
       <c r="D57" s="15"/>
@@ -2043,11 +2014,15 @@
       <c r="G57" s="3"/>
     </row>
     <row r="58" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A58" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B58" s="15"/>
-      <c r="C58" s="15"/>
+      <c r="A58" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>45</v>
+      </c>
       <c r="D58" s="15"/>
       <c r="E58" s="15"/>
       <c r="F58" s="5"/>
@@ -2061,7 +2036,7 @@
         <v>49</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D59" s="15"/>
       <c r="E59" s="15"/>
@@ -2076,7 +2051,7 @@
         <v>50</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D60" s="15"/>
       <c r="E60" s="15"/>
@@ -2084,23 +2059,17 @@
       <c r="G60" s="3"/>
     </row>
     <row r="61" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A61" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B61" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C61" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D61" s="20"/>
-      <c r="E61" s="20" t="s">
-        <v>52</v>
-      </c>
+      <c r="A61" s="15"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
       <c r="F61" s="5"/>
     </row>
     <row r="62" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A62" s="15"/>
+      <c r="A62" s="17" t="s">
+        <v>62</v>
+      </c>
       <c r="B62" s="15"/>
       <c r="C62" s="15"/>
       <c r="D62" s="15"/>
@@ -2108,11 +2077,15 @@
       <c r="F62" s="5"/>
     </row>
     <row r="63" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A63" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="B63" s="15"/>
-      <c r="C63" s="15"/>
+      <c r="A63" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>43</v>
+      </c>
       <c r="D63" s="15"/>
       <c r="E63" s="15"/>
       <c r="F63" s="5"/>
@@ -2122,10 +2095,10 @@
         <v>2</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D64" s="15"/>
       <c r="E64" s="15"/>
@@ -2136,10 +2109,10 @@
         <v>2</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D65" s="15"/>
       <c r="E65" s="15"/>
@@ -2150,10 +2123,10 @@
         <v>2</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
@@ -2164,10 +2137,10 @@
         <v>2</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D67" s="15"/>
       <c r="E67" s="15"/>
@@ -2178,10 +2151,10 @@
         <v>2</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D68" s="15"/>
       <c r="E68" s="15"/>
@@ -2192,10 +2165,10 @@
         <v>2</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D69" s="15"/>
       <c r="E69" s="15"/>
@@ -2206,10 +2179,10 @@
         <v>2</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D70" s="15"/>
       <c r="E70" s="15"/>
@@ -2220,7 +2193,7 @@
         <v>2</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C71" s="15" t="s">
         <v>46</v>
@@ -2234,10 +2207,10 @@
         <v>2</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D72" s="15"/>
       <c r="E72" s="15"/>
@@ -2248,10 +2221,10 @@
         <v>2</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D73" s="15"/>
       <c r="E73" s="15"/>
@@ -2262,10 +2235,10 @@
         <v>2</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D74" s="15"/>
       <c r="E74" s="15"/>
@@ -2276,12 +2249,14 @@
         <v>2</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D75" s="15"/>
+        <v>39</v>
+      </c>
+      <c r="D75" s="15" t="s">
+        <v>125</v>
+      </c>
       <c r="E75" s="15"/>
       <c r="F75" s="5"/>
     </row>
@@ -2290,14 +2265,12 @@
         <v>2</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D76" s="15" t="s">
-        <v>129</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D76" s="15"/>
       <c r="E76" s="15"/>
       <c r="F76" s="5"/>
     </row>
@@ -2306,13 +2279,15 @@
         <v>2</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D77" s="15"/>
-      <c r="E77" s="15"/>
+      <c r="E77" s="15" t="s">
+        <v>102</v>
+      </c>
       <c r="F77" s="5"/>
     </row>
     <row r="78" spans="1:6" ht="15.75" customHeight="1">
@@ -2320,15 +2295,13 @@
         <v>2</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="C78" s="15" t="s">
         <v>43</v>
       </c>
       <c r="D78" s="15"/>
-      <c r="E78" s="15" t="s">
-        <v>105</v>
-      </c>
+      <c r="E78" s="15"/>
       <c r="F78" s="5"/>
     </row>
     <row r="79" spans="1:6" ht="15.75" customHeight="1">
@@ -2336,10 +2309,10 @@
         <v>2</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D79" s="15"/>
       <c r="E79" s="15"/>
@@ -2350,24 +2323,24 @@
         <v>2</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D80" s="22"/>
-      <c r="E80" s="22"/>
-      <c r="F80" s="21"/>
+        <v>39</v>
+      </c>
+      <c r="D80" s="20"/>
+      <c r="E80" s="20"/>
+      <c r="F80" s="19"/>
     </row>
     <row r="81" spans="1:6" ht="15.75" customHeight="1">
       <c r="A81" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D81" s="15"/>
       <c r="E81" s="15"/>
@@ -2383,7 +2356,7 @@
     </row>
     <row r="83" spans="1:6" ht="15.75" customHeight="1">
       <c r="A83" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B83" s="15"/>
       <c r="C83" s="15"/>
@@ -2396,17 +2369,17 @@
         <v>2</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D84" s="15"/>
       <c r="E84" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F84" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="15.75" customHeight="1">
@@ -2414,29 +2387,29 @@
         <v>2</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="C85" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D85" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="E85" s="22"/>
-      <c r="F85" s="21"/>
+        <v>113</v>
+      </c>
+      <c r="C85" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D85" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="E85" s="20"/>
+      <c r="F85" s="19"/>
     </row>
     <row r="86" spans="1:6" ht="15.75" customHeight="1">
       <c r="A86" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D86" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E86" s="15"/>
       <c r="F86" s="5"/>
@@ -2446,14 +2419,14 @@
         <v>2</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D87" s="15"/>
       <c r="E87" s="15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F87" s="5"/>
     </row>
@@ -2462,14 +2435,14 @@
         <v>2</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D88" s="15"/>
       <c r="E88" s="15" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F88" s="5"/>
     </row>
@@ -2478,14 +2451,14 @@
         <v>2</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D89" s="15"/>
       <c r="E89" s="15" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F89" s="5"/>
     </row>
@@ -2494,14 +2467,14 @@
         <v>2</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D90" s="15"/>
       <c r="E90" s="15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F90" s="5"/>
     </row>
@@ -2509,33 +2482,33 @@
       <c r="A91" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B91" s="22" t="s">
-        <v>112</v>
+      <c r="B91" s="20" t="s">
+        <v>109</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="D91" s="22"/>
-      <c r="E91" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="F91" s="21"/>
+        <v>81</v>
+      </c>
+      <c r="D91" s="20"/>
+      <c r="E91" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="F91" s="19"/>
     </row>
     <row r="92" spans="1:6" ht="15.75" customHeight="1">
       <c r="A92" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C92" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D92" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E92" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F92" s="5"/>
     </row>
@@ -2549,7 +2522,7 @@
     </row>
     <row r="94" spans="1:6" ht="15.75" customHeight="1">
       <c r="A94" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B94" s="15"/>
       <c r="C94" s="15"/>
@@ -2562,10 +2535,10 @@
         <v>2</v>
       </c>
       <c r="B95" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C95" s="15" t="s">
         <v>81</v>
-      </c>
-      <c r="C95" s="15" t="s">
-        <v>83</v>
       </c>
       <c r="D95" s="15"/>
       <c r="E95" s="15"/>
@@ -2576,10 +2549,10 @@
         <v>2</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C96" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D96" s="15"/>
       <c r="E96" s="15"/>
@@ -2589,25 +2562,25 @@
       <c r="A97" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B97" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="C97" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D97" s="22"/>
-      <c r="E97" s="22"/>
-      <c r="F97" s="21"/>
+      <c r="B97" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C97" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D97" s="20"/>
+      <c r="E97" s="20"/>
+      <c r="F97" s="19"/>
     </row>
     <row r="98" spans="1:6" ht="15.75" customHeight="1">
       <c r="A98" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C98" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D98" s="15"/>
       <c r="E98" s="15"/>
@@ -2618,10 +2591,10 @@
         <v>2</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D99" s="15"/>
       <c r="E99" s="15"/>
@@ -2632,10 +2605,10 @@
         <v>2</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C100" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D100" s="15"/>
       <c r="E100" s="15"/>
@@ -2646,14 +2619,14 @@
         <v>2</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C101" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D101" s="15"/>
       <c r="E101" s="15" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F101" s="5"/>
     </row>
@@ -2662,10 +2635,10 @@
         <v>2</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C102" s="15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D102" s="15"/>
       <c r="E102" s="15"/>

--- a/doc/_editable/Artifacts.xlsx
+++ b/doc/_editable/Artifacts.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22220"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14128"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adam.clark\Desktop\GitHub2\WYSIWYD\doc\_editable\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7185"/>
   </bookViews>
   <sheets>
     <sheet name="MyBar Artifacts" sheetId="1" r:id="rId1"/>
@@ -12,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'MyBar Artifacts'!$A$1:$E$59</definedName>
   </definedNames>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="128">
   <si>
     <t>Notes</t>
   </si>
@@ -378,9 +383,6 @@
     <t>Wednesday Meeting</t>
   </si>
   <si>
-    <t>SharePoint was used as a platform to book meetings, edit documents, add "todo" tasks…etc</t>
-  </si>
-  <si>
     <t>User Stories</t>
   </si>
   <si>
@@ -403,6 +405,12 @@
   </si>
   <si>
     <t>User Stories Description</t>
+  </si>
+  <si>
+    <t>SharePoint was used as a platform to book meetings, edit documents, add "todo"  et cetera</t>
+  </si>
+  <si>
+    <t>Mathias Karlgren, Viktor Edsand</t>
   </si>
 </sst>
 </file>
@@ -1229,31 +1237,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor theme="6" tint="0.79998168889431442"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G173"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C61" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E60" sqref="E60"/>
+      <selection pane="bottomRight" activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="33.1640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="66.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="71.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="4"/>
+    <col min="1" max="1" width="39.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="66.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="79" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="6" customFormat="1" ht="39.75" customHeight="1">
+    <row r="1" spans="1:7" s="6" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>37</v>
       </c>
@@ -1263,7 +1271,7 @@
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" ht="30" customHeight="1">
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>98</v>
       </c>
@@ -1284,7 +1292,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" ht="13">
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>47</v>
       </c>
@@ -1295,7 +1303,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>1</v>
       </c>
@@ -1306,7 +1314,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>2</v>
       </c>
@@ -1321,7 +1329,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>2</v>
       </c>
@@ -1336,7 +1344,7 @@
       <c r="F6" s="5"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>2</v>
       </c>
@@ -1351,7 +1359,7 @@
       <c r="F7" s="5"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>2</v>
       </c>
@@ -1368,7 +1376,7 @@
       <c r="F8" s="5"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>2</v>
       </c>
@@ -1383,7 +1391,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>2</v>
       </c>
@@ -1400,7 +1408,7 @@
       <c r="F10" s="5"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>2</v>
       </c>
@@ -1415,7 +1423,7 @@
       <c r="F11" s="5"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>2</v>
       </c>
@@ -1430,7 +1438,7 @@
       <c r="F12" s="5"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>2</v>
       </c>
@@ -1445,7 +1453,7 @@
       <c r="F13" s="5"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>2</v>
       </c>
@@ -1460,7 +1468,7 @@
       <c r="F14" s="5"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>2</v>
       </c>
@@ -1475,7 +1483,7 @@
       <c r="F15" s="5"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
         <v>2</v>
       </c>
@@ -1490,7 +1498,7 @@
       <c r="F16" s="5"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
         <v>2</v>
       </c>
@@ -1505,7 +1513,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
         <v>2</v>
       </c>
@@ -1520,7 +1528,7 @@
       <c r="F18" s="5"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
         <v>17</v>
       </c>
@@ -1531,7 +1539,7 @@
       <c r="F19" s="5"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>2</v>
       </c>
@@ -1546,7 +1554,7 @@
       <c r="F20" s="5"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>2</v>
       </c>
@@ -1561,7 +1569,7 @@
       <c r="F21" s="5"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>2</v>
       </c>
@@ -1576,7 +1584,7 @@
       <c r="F22" s="5"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
         <v>21</v>
       </c>
@@ -1587,7 +1595,7 @@
       <c r="F23" s="5"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
         <v>2</v>
       </c>
@@ -1604,7 +1612,7 @@
       <c r="F24" s="5"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
         <v>2</v>
       </c>
@@ -1619,7 +1627,7 @@
       <c r="F25" s="5"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
         <v>2</v>
       </c>
@@ -1634,7 +1642,7 @@
       <c r="F26" s="5"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
         <v>2</v>
       </c>
@@ -1649,7 +1657,7 @@
       <c r="F27" s="5"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
         <v>26</v>
       </c>
@@ -1660,7 +1668,7 @@
       <c r="F28" s="5"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1">
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
         <v>2</v>
       </c>
@@ -1675,7 +1683,7 @@
       <c r="F29" s="5"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" ht="15.75" customHeight="1">
+    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
         <v>2</v>
       </c>
@@ -1690,7 +1698,7 @@
       <c r="F30" s="5"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" ht="15.75" customHeight="1">
+    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
         <v>2</v>
       </c>
@@ -1705,7 +1713,7 @@
       <c r="F31" s="5"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7" ht="15.75" customHeight="1">
+    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
         <v>2</v>
       </c>
@@ -1720,7 +1728,7 @@
       <c r="F32" s="5"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" ht="15.75" customHeight="1">
+    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
         <v>2</v>
       </c>
@@ -1735,7 +1743,7 @@
       <c r="F33" s="5"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" ht="15.75" customHeight="1">
+    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
         <v>32</v>
       </c>
@@ -1746,7 +1754,7 @@
       <c r="F34" s="5"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" ht="15.75" customHeight="1">
+    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
         <v>2</v>
       </c>
@@ -1761,7 +1769,7 @@
       <c r="F35" s="5"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" ht="15.75" customHeight="1">
+    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
         <v>34</v>
       </c>
@@ -1772,7 +1780,7 @@
       <c r="F36" s="5"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="15.75" customHeight="1">
+    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
         <v>2</v>
       </c>
@@ -1787,7 +1795,7 @@
       <c r="F37" s="5"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" ht="15.75" customHeight="1">
+    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
         <v>2</v>
       </c>
@@ -1802,18 +1810,18 @@
       <c r="F38" s="5"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" ht="15.75" customHeight="1">
+    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F39" s="5"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7" ht="15.75" customHeight="1">
+    <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
         <v>51</v>
       </c>
       <c r="F40" s="5"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
         <v>2</v>
       </c>
@@ -1825,7 +1833,7 @@
       </c>
       <c r="F41" s="5"/>
     </row>
-    <row r="42" spans="1:7" ht="15.75" customHeight="1">
+    <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
         <v>2</v>
       </c>
@@ -1837,7 +1845,7 @@
       </c>
       <c r="F42" s="5"/>
     </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1">
+    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
         <v>2</v>
       </c>
@@ -1852,7 +1860,7 @@
       </c>
       <c r="F43" s="5"/>
     </row>
-    <row r="44" spans="1:7" ht="17.25" customHeight="1">
+    <row r="44" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
         <v>2</v>
       </c>
@@ -1864,7 +1872,7 @@
       </c>
       <c r="F44" s="5"/>
     </row>
-    <row r="45" spans="1:7" ht="15.75" customHeight="1">
+    <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
         <v>2</v>
       </c>
@@ -1878,7 +1886,7 @@
       <c r="E45" s="15"/>
       <c r="F45" s="5"/>
     </row>
-    <row r="46" spans="1:7" ht="15.75" customHeight="1">
+    <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
         <v>2</v>
       </c>
@@ -1892,7 +1900,7 @@
       <c r="E46" s="15"/>
       <c r="F46" s="5"/>
     </row>
-    <row r="47" spans="1:7" ht="15.75" customHeight="1">
+    <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
         <v>2</v>
       </c>
@@ -1904,7 +1912,7 @@
       </c>
       <c r="F47" s="5"/>
     </row>
-    <row r="48" spans="1:7" ht="15.75" customHeight="1">
+    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="19"/>
       <c r="B48" s="20"/>
       <c r="C48" s="20"/>
@@ -1912,7 +1920,7 @@
       <c r="E48" s="20"/>
       <c r="F48" s="19"/>
     </row>
-    <row r="49" spans="1:7" ht="15.75" customHeight="1">
+    <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>106</v>
       </c>
@@ -1922,7 +1930,7 @@
       <c r="E49" s="20"/>
       <c r="F49" s="19"/>
     </row>
-    <row r="50" spans="1:7" ht="15.75" customHeight="1">
+    <row r="50" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="19"/>
       <c r="B50" s="20" t="s">
         <v>107</v>
@@ -1934,7 +1942,7 @@
       <c r="E50" s="20"/>
       <c r="F50" s="19"/>
     </row>
-    <row r="51" spans="1:7" ht="15.75" customHeight="1">
+    <row r="51" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="5"/>
       <c r="B51" s="15" t="s">
         <v>111</v>
@@ -1946,7 +1954,7 @@
       <c r="E51" s="15"/>
       <c r="F51" s="5"/>
     </row>
-    <row r="52" spans="1:7" ht="15.75" customHeight="1">
+    <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="19"/>
       <c r="B52" s="20"/>
       <c r="C52" s="20"/>
@@ -1954,7 +1962,7 @@
       <c r="E52" s="20"/>
       <c r="F52" s="19"/>
     </row>
-    <row r="53" spans="1:7" ht="15.75" customHeight="1">
+    <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
         <v>100</v>
       </c>
@@ -1964,7 +1972,7 @@
       <c r="E53" s="15"/>
       <c r="F53" s="5"/>
     </row>
-    <row r="54" spans="1:7" ht="15.75" customHeight="1">
+    <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
         <v>2</v>
       </c>
@@ -1980,7 +1988,7 @@
       </c>
       <c r="F54" s="5"/>
     </row>
-    <row r="55" spans="1:7" ht="15.75" customHeight="1">
+    <row r="55" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
         <v>2</v>
       </c>
@@ -1994,7 +2002,7 @@
       <c r="E55" s="15"/>
       <c r="F55" s="5"/>
     </row>
-    <row r="56" spans="1:7" ht="15.75" customHeight="1">
+    <row r="56" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="15"/>
       <c r="B56" s="15"/>
       <c r="C56" s="15"/>
@@ -2002,7 +2010,7 @@
       <c r="E56" s="15"/>
       <c r="F56" s="5"/>
     </row>
-    <row r="57" spans="1:7" ht="15.75" customHeight="1">
+    <row r="57" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="17" t="s">
         <v>61</v>
       </c>
@@ -2013,7 +2021,7 @@
       <c r="F57" s="5"/>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="1:7" ht="15.75" customHeight="1">
+    <row r="58" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="s">
         <v>2</v>
       </c>
@@ -2028,7 +2036,7 @@
       <c r="F58" s="5"/>
       <c r="G58" s="3"/>
     </row>
-    <row r="59" spans="1:7" ht="15.75" customHeight="1">
+    <row r="59" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
         <v>2</v>
       </c>
@@ -2043,7 +2051,7 @@
       <c r="F59" s="5"/>
       <c r="G59" s="3"/>
     </row>
-    <row r="60" spans="1:7" ht="15.75" customHeight="1">
+    <row r="60" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
         <v>2</v>
       </c>
@@ -2058,7 +2066,7 @@
       <c r="F60" s="5"/>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="1:7" ht="15.75" customHeight="1">
+    <row r="61" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="15"/>
       <c r="B61" s="15"/>
       <c r="C61" s="15"/>
@@ -2066,7 +2074,7 @@
       <c r="E61" s="15"/>
       <c r="F61" s="5"/>
     </row>
-    <row r="62" spans="1:7" ht="15.75" customHeight="1">
+    <row r="62" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="17" t="s">
         <v>62</v>
       </c>
@@ -2076,7 +2084,7 @@
       <c r="E62" s="15"/>
       <c r="F62" s="5"/>
     </row>
-    <row r="63" spans="1:7" ht="15.75" customHeight="1">
+    <row r="63" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
         <v>2</v>
       </c>
@@ -2084,13 +2092,13 @@
         <v>63</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D63" s="15"/>
       <c r="E63" s="15"/>
       <c r="F63" s="5"/>
     </row>
-    <row r="64" spans="1:7" ht="15.75" customHeight="1">
+    <row r="64" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="s">
         <v>2</v>
       </c>
@@ -2098,13 +2106,13 @@
         <v>64</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>43</v>
+        <v>127</v>
       </c>
       <c r="D64" s="15"/>
       <c r="E64" s="15"/>
       <c r="F64" s="5"/>
     </row>
-    <row r="65" spans="1:6" ht="15.75" customHeight="1">
+    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
         <v>2</v>
       </c>
@@ -2118,7 +2126,7 @@
       <c r="E65" s="15"/>
       <c r="F65" s="5"/>
     </row>
-    <row r="66" spans="1:6" ht="15.75" customHeight="1">
+    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="s">
         <v>2</v>
       </c>
@@ -2132,7 +2140,7 @@
       <c r="E66" s="15"/>
       <c r="F66" s="5"/>
     </row>
-    <row r="67" spans="1:6" ht="15.75" customHeight="1">
+    <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="11" t="s">
         <v>2</v>
       </c>
@@ -2146,7 +2154,7 @@
       <c r="E67" s="15"/>
       <c r="F67" s="5"/>
     </row>
-    <row r="68" spans="1:6" ht="15.75" customHeight="1">
+    <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="s">
         <v>2</v>
       </c>
@@ -2160,7 +2168,7 @@
       <c r="E68" s="15"/>
       <c r="F68" s="5"/>
     </row>
-    <row r="69" spans="1:6" ht="15.75" customHeight="1">
+    <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="s">
         <v>2</v>
       </c>
@@ -2174,7 +2182,7 @@
       <c r="E69" s="15"/>
       <c r="F69" s="5"/>
     </row>
-    <row r="70" spans="1:6" ht="15.75" customHeight="1">
+    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="11" t="s">
         <v>2</v>
       </c>
@@ -2188,7 +2196,7 @@
       <c r="E70" s="15"/>
       <c r="F70" s="5"/>
     </row>
-    <row r="71" spans="1:6" ht="15.75" customHeight="1">
+    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="11" t="s">
         <v>2</v>
       </c>
@@ -2202,12 +2210,12 @@
       <c r="E71" s="15"/>
       <c r="F71" s="5"/>
     </row>
-    <row r="72" spans="1:6" ht="15.75" customHeight="1">
+    <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C72" s="15" t="s">
         <v>43</v>
@@ -2216,12 +2224,12 @@
       <c r="E72" s="15"/>
       <c r="F72" s="5"/>
     </row>
-    <row r="73" spans="1:6" ht="15.75" customHeight="1">
+    <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C73" s="15" t="s">
         <v>45</v>
@@ -2230,7 +2238,7 @@
       <c r="E73" s="15"/>
       <c r="F73" s="5"/>
     </row>
-    <row r="74" spans="1:6" ht="15.75" customHeight="1">
+    <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="11" t="s">
         <v>2</v>
       </c>
@@ -2244,7 +2252,7 @@
       <c r="E74" s="15"/>
       <c r="F74" s="5"/>
     </row>
-    <row r="75" spans="1:6" ht="15.75" customHeight="1">
+    <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="11" t="s">
         <v>2</v>
       </c>
@@ -2255,12 +2263,12 @@
         <v>39</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E75" s="15"/>
       <c r="F75" s="5"/>
     </row>
-    <row r="76" spans="1:6" ht="15.75" customHeight="1">
+    <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="11" t="s">
         <v>2</v>
       </c>
@@ -2274,7 +2282,7 @@
       <c r="E76" s="15"/>
       <c r="F76" s="5"/>
     </row>
-    <row r="77" spans="1:6" ht="15.75" customHeight="1">
+    <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="11" t="s">
         <v>2</v>
       </c>
@@ -2290,7 +2298,7 @@
       </c>
       <c r="F77" s="5"/>
     </row>
-    <row r="78" spans="1:6" ht="15.75" customHeight="1">
+    <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="11" t="s">
         <v>2</v>
       </c>
@@ -2304,12 +2312,12 @@
       <c r="E78" s="15"/>
       <c r="F78" s="5"/>
     </row>
-    <row r="79" spans="1:6" ht="15.75" customHeight="1">
+    <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C79" s="15" t="s">
         <v>42</v>
@@ -2318,12 +2326,12 @@
       <c r="E79" s="15"/>
       <c r="F79" s="5"/>
     </row>
-    <row r="80" spans="1:6" ht="15.75" customHeight="1">
+    <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C80" s="15" t="s">
         <v>39</v>
@@ -2332,7 +2340,7 @@
       <c r="E80" s="20"/>
       <c r="F80" s="19"/>
     </row>
-    <row r="81" spans="1:6" ht="15.75" customHeight="1">
+    <row r="81" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="s">
         <v>2</v>
       </c>
@@ -2346,7 +2354,7 @@
       <c r="E81" s="15"/>
       <c r="F81" s="5"/>
     </row>
-    <row r="82" spans="1:6" ht="15.75" customHeight="1">
+    <row r="82" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="15"/>
       <c r="B82" s="15"/>
       <c r="C82" s="15"/>
@@ -2354,7 +2362,7 @@
       <c r="E82" s="15"/>
       <c r="F82" s="5"/>
     </row>
-    <row r="83" spans="1:6" ht="15.75" customHeight="1">
+    <row r="83" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="17" t="s">
         <v>82</v>
       </c>
@@ -2364,12 +2372,12 @@
       <c r="E83" s="15"/>
       <c r="F83" s="5"/>
     </row>
-    <row r="84" spans="1:6" ht="15.75" customHeight="1">
+    <row r="84" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C84" s="15" t="s">
         <v>81</v>
@@ -2382,7 +2390,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="15.75" customHeight="1">
+    <row r="85" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="s">
         <v>2</v>
       </c>
@@ -2398,7 +2406,7 @@
       <c r="E85" s="20"/>
       <c r="F85" s="19"/>
     </row>
-    <row r="86" spans="1:6" ht="15.75" customHeight="1">
+    <row r="86" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="11" t="s">
         <v>2</v>
       </c>
@@ -2414,7 +2422,7 @@
       <c r="E86" s="15"/>
       <c r="F86" s="5"/>
     </row>
-    <row r="87" spans="1:6" ht="15.75" customHeight="1">
+    <row r="87" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="11" t="s">
         <v>2</v>
       </c>
@@ -2430,7 +2438,7 @@
       </c>
       <c r="F87" s="5"/>
     </row>
-    <row r="88" spans="1:6" ht="15.75" customHeight="1">
+    <row r="88" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="11" t="s">
         <v>2</v>
       </c>
@@ -2442,11 +2450,11 @@
       </c>
       <c r="D88" s="15"/>
       <c r="E88" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F88" s="5"/>
     </row>
-    <row r="89" spans="1:6" ht="15.75" customHeight="1">
+    <row r="89" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="11" t="s">
         <v>2</v>
       </c>
@@ -2454,15 +2462,15 @@
         <v>117</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D89" s="15"/>
       <c r="E89" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F89" s="5"/>
     </row>
-    <row r="90" spans="1:6" ht="15.75" customHeight="1">
+    <row r="90" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="11" t="s">
         <v>2</v>
       </c>
@@ -2478,7 +2486,7 @@
       </c>
       <c r="F90" s="5"/>
     </row>
-    <row r="91" spans="1:6" ht="15.75" customHeight="1">
+    <row r="91" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="11" t="s">
         <v>2</v>
       </c>
@@ -2494,7 +2502,7 @@
       </c>
       <c r="F91" s="19"/>
     </row>
-    <row r="92" spans="1:6" ht="15.75" customHeight="1">
+    <row r="92" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="11" t="s">
         <v>2</v>
       </c>
@@ -2512,7 +2520,7 @@
       </c>
       <c r="F92" s="5"/>
     </row>
-    <row r="93" spans="1:6" ht="15.75" customHeight="1">
+    <row r="93" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="15"/>
       <c r="B93" s="15"/>
       <c r="C93" s="15"/>
@@ -2520,7 +2528,7 @@
       <c r="E93" s="15"/>
       <c r="F93" s="5"/>
     </row>
-    <row r="94" spans="1:6" ht="15.75" customHeight="1">
+    <row r="94" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="17" t="s">
         <v>78</v>
       </c>
@@ -2530,7 +2538,7 @@
       <c r="E94" s="15"/>
       <c r="F94" s="5"/>
     </row>
-    <row r="95" spans="1:6" ht="15.75" customHeight="1">
+    <row r="95" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="11" t="s">
         <v>2</v>
       </c>
@@ -2544,7 +2552,7 @@
       <c r="E95" s="15"/>
       <c r="F95" s="5"/>
     </row>
-    <row r="96" spans="1:6" ht="15.75" customHeight="1">
+    <row r="96" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="11" t="s">
         <v>2</v>
       </c>
@@ -2558,7 +2566,7 @@
       <c r="E96" s="15"/>
       <c r="F96" s="5"/>
     </row>
-    <row r="97" spans="1:6" ht="15.75" customHeight="1">
+    <row r="97" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="11" t="s">
         <v>2</v>
       </c>
@@ -2572,7 +2580,7 @@
       <c r="E97" s="20"/>
       <c r="F97" s="19"/>
     </row>
-    <row r="98" spans="1:6" ht="15.75" customHeight="1">
+    <row r="98" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="11" t="s">
         <v>2</v>
       </c>
@@ -2586,7 +2594,7 @@
       <c r="E98" s="15"/>
       <c r="F98" s="5"/>
     </row>
-    <row r="99" spans="1:6" ht="15.75" customHeight="1">
+    <row r="99" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="11" t="s">
         <v>2</v>
       </c>
@@ -2600,7 +2608,7 @@
       <c r="E99" s="15"/>
       <c r="F99" s="5"/>
     </row>
-    <row r="100" spans="1:6" ht="15.75" customHeight="1">
+    <row r="100" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="11" t="s">
         <v>2</v>
       </c>
@@ -2614,7 +2622,7 @@
       <c r="E100" s="15"/>
       <c r="F100" s="5"/>
     </row>
-    <row r="101" spans="1:6" ht="15.75" customHeight="1">
+    <row r="101" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="11" t="s">
         <v>2</v>
       </c>
@@ -2626,11 +2634,11 @@
       </c>
       <c r="D101" s="15"/>
       <c r="E101" s="15" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="F101" s="5"/>
     </row>
-    <row r="102" spans="1:6" ht="15.75" customHeight="1">
+    <row r="102" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="11" t="s">
         <v>2</v>
       </c>
@@ -2644,7 +2652,7 @@
       <c r="E102" s="15"/>
       <c r="F102" s="5"/>
     </row>
-    <row r="103" spans="1:6" ht="15.75" customHeight="1">
+    <row r="103" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="15"/>
       <c r="B103" s="15"/>
       <c r="C103" s="15"/>
@@ -2652,7 +2660,7 @@
       <c r="E103" s="15"/>
       <c r="F103" s="5"/>
     </row>
-    <row r="104" spans="1:6" ht="15.75" customHeight="1">
+    <row r="104" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="15"/>
       <c r="B104" s="15"/>
       <c r="C104" s="15"/>
@@ -2660,7 +2668,7 @@
       <c r="E104" s="15"/>
       <c r="F104" s="5"/>
     </row>
-    <row r="105" spans="1:6" ht="15.75" customHeight="1">
+    <row r="105" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="15"/>
       <c r="B105" s="15"/>
       <c r="C105" s="15"/>
@@ -2668,7 +2676,7 @@
       <c r="E105" s="15"/>
       <c r="F105" s="5"/>
     </row>
-    <row r="106" spans="1:6" ht="15.75" customHeight="1">
+    <row r="106" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="15"/>
       <c r="B106" s="15"/>
       <c r="C106" s="15"/>
@@ -2676,7 +2684,7 @@
       <c r="E106" s="15"/>
       <c r="F106" s="5"/>
     </row>
-    <row r="107" spans="1:6" ht="15.75" customHeight="1">
+    <row r="107" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="15"/>
       <c r="B107" s="15"/>
       <c r="C107" s="15"/>
@@ -2684,7 +2692,7 @@
       <c r="E107" s="15"/>
       <c r="F107" s="5"/>
     </row>
-    <row r="108" spans="1:6" ht="15.75" customHeight="1">
+    <row r="108" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="15"/>
       <c r="B108" s="15"/>
       <c r="C108" s="15"/>
@@ -2692,7 +2700,7 @@
       <c r="E108" s="15"/>
       <c r="F108" s="5"/>
     </row>
-    <row r="109" spans="1:6" ht="15.75" customHeight="1">
+    <row r="109" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="15"/>
       <c r="B109" s="15"/>
       <c r="C109" s="15"/>
@@ -2700,7 +2708,7 @@
       <c r="E109" s="15"/>
       <c r="F109" s="5"/>
     </row>
-    <row r="110" spans="1:6" ht="15.75" customHeight="1">
+    <row r="110" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="15"/>
       <c r="B110" s="15"/>
       <c r="C110" s="15"/>
@@ -2708,7 +2716,7 @@
       <c r="E110" s="15"/>
       <c r="F110" s="5"/>
     </row>
-    <row r="111" spans="1:6" ht="15.75" customHeight="1">
+    <row r="111" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="15"/>
       <c r="B111" s="15"/>
       <c r="C111" s="15"/>
@@ -2716,7 +2724,7 @@
       <c r="E111" s="15"/>
       <c r="F111" s="5"/>
     </row>
-    <row r="112" spans="1:6" ht="15.75" customHeight="1">
+    <row r="112" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="15"/>
       <c r="B112" s="15"/>
       <c r="C112" s="15"/>
@@ -2724,7 +2732,7 @@
       <c r="E112" s="15"/>
       <c r="F112" s="5"/>
     </row>
-    <row r="113" spans="1:6" ht="15.75" customHeight="1">
+    <row r="113" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="15"/>
       <c r="B113" s="15"/>
       <c r="C113" s="15"/>
@@ -2732,66 +2740,66 @@
       <c r="E113" s="15"/>
       <c r="F113" s="5"/>
     </row>
-    <row r="114" spans="1:6" ht="15.75" customHeight="1"/>
-    <row r="115" spans="1:6" ht="15.75" customHeight="1"/>
-    <row r="116" spans="1:6" ht="15.75" customHeight="1"/>
-    <row r="117" spans="1:6" ht="15.75" customHeight="1"/>
-    <row r="118" spans="1:6" ht="15.75" customHeight="1"/>
-    <row r="119" spans="1:6" ht="15.75" customHeight="1"/>
-    <row r="120" spans="1:6" ht="15.75" customHeight="1"/>
-    <row r="121" spans="1:6" ht="15.75" customHeight="1"/>
-    <row r="122" spans="1:6" ht="15.75" customHeight="1"/>
-    <row r="123" spans="1:6" ht="15.75" customHeight="1"/>
-    <row r="124" spans="1:6" ht="15.75" customHeight="1"/>
-    <row r="125" spans="1:6" ht="15.75" customHeight="1"/>
-    <row r="126" spans="1:6" ht="15.75" customHeight="1"/>
-    <row r="127" spans="1:6" ht="15.75" customHeight="1"/>
-    <row r="128" spans="1:6" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="114" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/doc/_editable/Artifacts.xlsx
+++ b/doc/_editable/Artifacts.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7185"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="7110"/>
   </bookViews>
   <sheets>
     <sheet name="MyBar Artifacts" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'MyBar Artifacts'!$A$1:$E$59</definedName>
   </definedNames>
-  <calcPr calcId="125725" iterateDelta="1E-4"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="131">
   <si>
     <t>Notes</t>
   </si>
@@ -203,9 +203,6 @@
     <t>view_drink.xml</t>
   </si>
   <si>
-    <t>Adam Clark, Viktor Edsand</t>
-  </si>
-  <si>
     <t>view_settings.xml</t>
   </si>
   <si>
@@ -233,9 +230,6 @@
     <t>Description and Features</t>
   </si>
   <si>
-    <t>Development Introduction</t>
-  </si>
-  <si>
     <t>Known Bugs and Limitations</t>
   </si>
   <si>
@@ -401,9 +395,6 @@
     <t>Mathias Bjurbäck, Viktor Edsand, Dag Fridén, Mathias Karlgren</t>
   </si>
   <si>
-    <t>Viktor Edsand, Mathias Karlgren</t>
-  </si>
-  <si>
     <t>User Stories Description</t>
   </si>
   <si>
@@ -411,13 +402,31 @@
   </si>
   <si>
     <t>Mathias Karlgren, Viktor Edsand</t>
+  </si>
+  <si>
+    <t>Development Manual</t>
+  </si>
+  <si>
+    <t>Adam Clark, Mathias Karlgren, Viktor Edsand</t>
+  </si>
+  <si>
+    <t>UPPDATERA UML</t>
+  </si>
+  <si>
+    <t>SKRIV KLART ADAM</t>
+  </si>
+  <si>
+    <t>Reflection</t>
+  </si>
+  <si>
+    <t>Adam Clark, Mathias Bjurbäck, Mathias Karlgren</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -468,6 +477,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -475,12 +485,21 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="11"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -567,7 +586,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -623,6 +642,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -938,8 +967,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:F113" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A2:F113"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:F114" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A2:F114"/>
   <tableColumns count="6">
     <tableColumn id="1" name="General Context" dataDxfId="5"/>
     <tableColumn id="2" name="Particular Context" dataDxfId="4"/>
@@ -1241,13 +1270,13 @@
     <tabColor theme="6" tint="0.79998168889431442"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G173"/>
+  <dimension ref="A1:G174"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C61" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C63" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C65" sqref="C65"/>
+      <selection pane="bottomRight" activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1255,17 +1284,17 @@
     <col min="1" max="1" width="39.7109375" style="4" customWidth="1"/>
     <col min="2" max="2" width="33.140625" style="4" customWidth="1"/>
     <col min="3" max="3" width="66.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="46.28515625" style="4" customWidth="1"/>
     <col min="5" max="5" width="79" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="37.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="6" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="26"/>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
       <c r="E1" s="10"/>
@@ -1273,10 +1302,10 @@
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>40</v>
@@ -1288,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -1891,7 +1920,7 @@
         <v>2</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C46" s="15" t="s">
         <v>39</v>
@@ -1905,7 +1934,7 @@
         <v>2</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>43</v>
@@ -1922,7 +1951,7 @@
     </row>
     <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B49" s="20"/>
       <c r="C49" s="20"/>
@@ -1933,7 +1962,7 @@
     <row r="50" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="19"/>
       <c r="B50" s="20" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C50" s="20" t="s">
         <v>44</v>
@@ -1945,10 +1974,10 @@
     <row r="51" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="5"/>
       <c r="B51" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
@@ -1964,7 +1993,7 @@
     </row>
     <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B53" s="15"/>
       <c r="C53" s="15"/>
@@ -1977,14 +2006,14 @@
         <v>2</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C54" s="15" t="s">
         <v>42</v>
       </c>
       <c r="D54" s="15"/>
       <c r="E54" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F54" s="5"/>
     </row>
@@ -1993,7 +2022,7 @@
         <v>2</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C55" s="15" t="s">
         <v>46</v>
@@ -2012,7 +2041,7 @@
     </row>
     <row r="57" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B57" s="15"/>
       <c r="C57" s="15"/>
@@ -2076,7 +2105,7 @@
     </row>
     <row r="62" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62" s="15"/>
       <c r="C62" s="15"/>
@@ -2089,10 +2118,10 @@
         <v>2</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D63" s="15"/>
       <c r="E63" s="15"/>
@@ -2103,10 +2132,10 @@
         <v>2</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D64" s="15"/>
       <c r="E64" s="15"/>
@@ -2117,12 +2146,14 @@
         <v>2</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C65" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D65" s="15"/>
+      <c r="D65" s="15" t="s">
+        <v>41</v>
+      </c>
       <c r="E65" s="15"/>
       <c r="F65" s="5"/>
     </row>
@@ -2131,12 +2162,14 @@
         <v>2</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C66" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D66" s="15"/>
+      <c r="D66" s="15" t="s">
+        <v>41</v>
+      </c>
       <c r="E66" s="15"/>
       <c r="F66" s="5"/>
     </row>
@@ -2145,7 +2178,7 @@
         <v>2</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C67" s="15" t="s">
         <v>39</v>
@@ -2159,7 +2192,7 @@
         <v>2</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="C68" s="15" t="s">
         <v>42</v>
@@ -2173,7 +2206,7 @@
         <v>2</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C69" s="15" t="s">
         <v>39</v>
@@ -2187,12 +2220,14 @@
         <v>2</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C70" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D70" s="15"/>
+      <c r="D70" s="15" t="s">
+        <v>41</v>
+      </c>
       <c r="E70" s="15"/>
       <c r="F70" s="5"/>
     </row>
@@ -2201,12 +2236,14 @@
         <v>2</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C71" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D71" s="15"/>
+      <c r="D71" s="15" t="s">
+        <v>41</v>
+      </c>
       <c r="E71" s="15"/>
       <c r="F71" s="5"/>
     </row>
@@ -2215,12 +2252,14 @@
         <v>2</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C72" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D72" s="15"/>
+      <c r="D72" s="15" t="s">
+        <v>41</v>
+      </c>
       <c r="E72" s="15"/>
       <c r="F72" s="5"/>
     </row>
@@ -2229,7 +2268,7 @@
         <v>2</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C73" s="15" t="s">
         <v>45</v>
@@ -2243,7 +2282,7 @@
         <v>2</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C74" s="15" t="s">
         <v>42</v>
@@ -2257,13 +2296,13 @@
         <v>2</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C75" s="15" t="s">
         <v>39</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E75" s="15"/>
       <c r="F75" s="5"/>
@@ -2273,7 +2312,7 @@
         <v>2</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C76" s="15" t="s">
         <v>43</v>
@@ -2287,15 +2326,13 @@
         <v>2</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="D77" s="15"/>
-      <c r="E77" s="15" t="s">
-        <v>102</v>
-      </c>
+      <c r="E77" s="15"/>
       <c r="F77" s="5"/>
     </row>
     <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2303,13 +2340,15 @@
         <v>2</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D78" s="15"/>
-      <c r="E78" s="15"/>
+      <c r="E78" s="15" t="s">
+        <v>100</v>
+      </c>
       <c r="F78" s="5"/>
     </row>
     <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2317,13 +2356,15 @@
         <v>2</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D79" s="15"/>
-      <c r="E79" s="15"/>
+      <c r="E79" s="15" t="s">
+        <v>127</v>
+      </c>
       <c r="F79" s="5"/>
     </row>
     <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2331,111 +2372,113 @@
         <v>2</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C80" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D80" s="15"/>
+      <c r="E80" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="F80" s="5"/>
+    </row>
+    <row r="81" spans="1:6" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B81" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C81" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D80" s="20"/>
-      <c r="E80" s="20"/>
-      <c r="F80" s="19"/>
-    </row>
-    <row r="81" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B81" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C81" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D81" s="15"/>
-      <c r="E81" s="15"/>
-      <c r="F81" s="5"/>
+      <c r="D81" s="22"/>
+      <c r="E81" s="22"/>
+      <c r="F81" s="23"/>
     </row>
     <row r="82" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="15"/>
-      <c r="B82" s="15"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="15"/>
+      <c r="A82" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B82" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D82" s="15" t="s">
+        <v>43</v>
+      </c>
       <c r="E82" s="15"/>
       <c r="F82" s="5"/>
     </row>
-    <row r="83" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="17" t="s">
-        <v>82</v>
-      </c>
+    <row r="83" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="15"/>
       <c r="B83" s="15"/>
       <c r="C83" s="15"/>
       <c r="D83" s="15"/>
       <c r="E83" s="15"/>
       <c r="F83" s="5"/>
     </row>
-    <row r="84" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B84" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="C84" s="15" t="s">
-        <v>81</v>
-      </c>
+    <row r="84" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B84" s="15"/>
+      <c r="C84" s="15"/>
       <c r="D84" s="15"/>
-      <c r="E84" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="F84" s="15" t="s">
-        <v>84</v>
-      </c>
+      <c r="E84" s="15"/>
+      <c r="F84" s="5"/>
     </row>
     <row r="85" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="C85" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D85" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="E85" s="20"/>
-      <c r="F85" s="19"/>
+        <v>117</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D85" s="15"/>
+      <c r="E85" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F85" s="15" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="86" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="C86" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D86" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C86" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="E86" s="15"/>
-      <c r="F86" s="5"/>
+      <c r="D86" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E86" s="20"/>
+      <c r="F86" s="19"/>
     </row>
     <row r="87" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="D87" s="15"/>
-      <c r="E87" s="15" t="s">
-        <v>91</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D87" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E87" s="15"/>
       <c r="F87" s="5"/>
     </row>
     <row r="88" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2443,14 +2486,14 @@
         <v>2</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="D88" s="15"/>
       <c r="E88" s="15" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="F88" s="5"/>
     </row>
@@ -2459,14 +2502,14 @@
         <v>2</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D89" s="15"/>
       <c r="E89" s="15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F89" s="5"/>
     </row>
@@ -2475,14 +2518,14 @@
         <v>2</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="D90" s="15"/>
       <c r="E90" s="15" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="F90" s="5"/>
     </row>
@@ -2490,64 +2533,66 @@
       <c r="A91" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B91" s="20" t="s">
-        <v>109</v>
+      <c r="B91" s="15" t="s">
+        <v>85</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="D91" s="20"/>
-      <c r="E91" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="F91" s="19"/>
+        <v>79</v>
+      </c>
+      <c r="D91" s="15"/>
+      <c r="E91" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F91" s="5"/>
     </row>
     <row r="92" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B92" s="15" t="s">
-        <v>90</v>
+      <c r="B92" s="20" t="s">
+        <v>107</v>
       </c>
       <c r="C92" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D92" s="20"/>
+      <c r="E92" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="F92" s="19"/>
+    </row>
+    <row r="93" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B93" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="D92" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="E92" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="F92" s="5"/>
-    </row>
-    <row r="93" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="15"/>
-      <c r="B93" s="15"/>
-      <c r="C93" s="15"/>
-      <c r="D93" s="15"/>
-      <c r="E93" s="15"/>
+      <c r="C93" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D93" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E93" s="15" t="s">
+        <v>87</v>
+      </c>
       <c r="F93" s="5"/>
     </row>
-    <row r="94" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="17" t="s">
-        <v>78</v>
-      </c>
+    <row r="94" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="15"/>
       <c r="B94" s="15"/>
       <c r="C94" s="15"/>
       <c r="D94" s="15"/>
       <c r="E94" s="15"/>
       <c r="F94" s="5"/>
     </row>
-    <row r="95" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B95" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C95" s="15" t="s">
-        <v>81</v>
-      </c>
+    <row r="95" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B95" s="15"/>
+      <c r="C95" s="15"/>
       <c r="D95" s="15"/>
       <c r="E95" s="15"/>
       <c r="F95" s="5"/>
@@ -2557,10 +2602,10 @@
         <v>2</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C96" s="15" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="D96" s="15"/>
       <c r="E96" s="15"/>
@@ -2570,39 +2615,39 @@
       <c r="A97" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B97" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="C97" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D97" s="20"/>
-      <c r="E97" s="20"/>
-      <c r="F97" s="19"/>
+      <c r="B97" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C97" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D97" s="15"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="5"/>
     </row>
     <row r="98" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B98" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="C98" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="D98" s="15"/>
-      <c r="E98" s="15"/>
-      <c r="F98" s="5"/>
+      <c r="B98" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C98" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D98" s="20"/>
+      <c r="E98" s="20"/>
+      <c r="F98" s="19"/>
     </row>
     <row r="99" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="D99" s="15"/>
       <c r="E99" s="15"/>
@@ -2613,10 +2658,10 @@
         <v>2</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C100" s="15" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="D100" s="15"/>
       <c r="E100" s="15"/>
@@ -2627,15 +2672,13 @@
         <v>2</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C101" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D101" s="15"/>
-      <c r="E101" s="15" t="s">
-        <v>126</v>
-      </c>
+      <c r="E101" s="15"/>
       <c r="F101" s="5"/>
     </row>
     <row r="102" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2643,19 +2686,27 @@
         <v>2</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C102" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D102" s="15"/>
+      <c r="E102" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="F102" s="5"/>
+    </row>
+    <row r="103" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B103" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="D102" s="15"/>
-      <c r="E102" s="15"/>
-      <c r="F102" s="5"/>
-    </row>
-    <row r="103" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="15"/>
-      <c r="B103" s="15"/>
-      <c r="C103" s="15"/>
+      <c r="C103" s="15" t="s">
+        <v>92</v>
+      </c>
       <c r="D103" s="15"/>
       <c r="E103" s="15"/>
       <c r="F103" s="5"/>
@@ -2740,7 +2791,14 @@
       <c r="E113" s="15"/>
       <c r="F113" s="5"/>
     </row>
-    <row r="114" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="15"/>
+      <c r="B114" s="15"/>
+      <c r="C114" s="15"/>
+      <c r="D114" s="15"/>
+      <c r="E114" s="15"/>
+      <c r="F114" s="5"/>
+    </row>
     <row r="115" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="116" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="117" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2800,6 +2858,7 @@
     <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/doc/_editable/Artifacts.xlsx
+++ b/doc/_editable/Artifacts.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="7110"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="MyBar Artifacts" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="127">
   <si>
     <t>Notes</t>
   </si>
@@ -329,9 +329,6 @@
     <t>Robotium Testing</t>
   </si>
   <si>
-    <t>Kom ihåg att skriva!!</t>
-  </si>
-  <si>
     <t>Database Testing</t>
   </si>
   <si>
@@ -377,9 +374,6 @@
     <t>Wednesday Meeting</t>
   </si>
   <si>
-    <t>User Stories</t>
-  </si>
-  <si>
     <t>Sunday Meeting (VoIP)</t>
   </si>
   <si>
@@ -408,12 +402,6 @@
   </si>
   <si>
     <t>Adam Clark, Mathias Karlgren, Viktor Edsand</t>
-  </si>
-  <si>
-    <t>UPPDATERA UML</t>
-  </si>
-  <si>
-    <t>SKRIV KLART ADAM</t>
   </si>
   <si>
     <t>Reflection</t>
@@ -426,7 +414,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -493,13 +481,6 @@
       <color theme="11"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -586,7 +567,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -642,16 +623,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -967,8 +938,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:F114" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A2:F114"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:F113" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A2:F113"/>
   <tableColumns count="6">
     <tableColumn id="1" name="General Context" dataDxfId="5"/>
     <tableColumn id="2" name="Particular Context" dataDxfId="4"/>
@@ -1270,13 +1241,13 @@
     <tabColor theme="6" tint="0.79998168889431442"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G174"/>
+  <dimension ref="A1:G173"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C63" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B63" sqref="B63"/>
+      <selection pane="bottomRight" activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1291,10 +1262,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="6" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="26"/>
+      <c r="B1" s="22"/>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
       <c r="E1" s="10"/>
@@ -1951,7 +1922,7 @@
     </row>
     <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B49" s="20"/>
       <c r="C49" s="20"/>
@@ -1962,7 +1933,7 @@
     <row r="50" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="19"/>
       <c r="B50" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C50" s="20" t="s">
         <v>44</v>
@@ -1974,10 +1945,10 @@
     <row r="51" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="5"/>
       <c r="B51" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
@@ -2006,14 +1977,14 @@
         <v>2</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C54" s="15" t="s">
         <v>42</v>
       </c>
       <c r="D54" s="15"/>
       <c r="E54" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F54" s="5"/>
     </row>
@@ -2022,7 +1993,7 @@
         <v>2</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C55" s="15" t="s">
         <v>46</v>
@@ -2135,7 +2106,7 @@
         <v>63</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D64" s="15"/>
       <c r="E64" s="15"/>
@@ -2192,7 +2163,7 @@
         <v>2</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C68" s="15" t="s">
         <v>42</v>
@@ -2252,7 +2223,7 @@
         <v>2</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C72" s="15" t="s">
         <v>43</v>
@@ -2268,7 +2239,7 @@
         <v>2</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C73" s="15" t="s">
         <v>45</v>
@@ -2302,7 +2273,7 @@
         <v>39</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E75" s="15"/>
       <c r="F75" s="5"/>
@@ -2326,10 +2297,10 @@
         <v>2</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D77" s="15"/>
       <c r="E77" s="15"/>
@@ -2346,9 +2317,7 @@
         <v>42</v>
       </c>
       <c r="D78" s="15"/>
-      <c r="E78" s="15" t="s">
-        <v>100</v>
-      </c>
+      <c r="E78" s="15"/>
       <c r="F78" s="5"/>
     </row>
     <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2362,9 +2331,7 @@
         <v>43</v>
       </c>
       <c r="D79" s="15"/>
-      <c r="E79" s="15" t="s">
-        <v>127</v>
-      </c>
+      <c r="E79" s="15"/>
       <c r="F79" s="5"/>
     </row>
     <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2372,82 +2339,84 @@
         <v>2</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C80" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D80" s="15"/>
-      <c r="E80" s="15" t="s">
-        <v>128</v>
-      </c>
+      <c r="D80" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E80" s="15"/>
       <c r="F80" s="5"/>
     </row>
-    <row r="81" spans="1:6" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B81" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="C81" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D81" s="22"/>
-      <c r="E81" s="22"/>
-      <c r="F81" s="23"/>
+    <row r="81" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B81" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C81" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D81" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E81" s="15"/>
+      <c r="F81" s="5"/>
     </row>
     <row r="82" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B82" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C82" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D82" s="15" t="s">
-        <v>43</v>
-      </c>
+      <c r="A82" s="15"/>
+      <c r="B82" s="15"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="15"/>
       <c r="E82" s="15"/>
       <c r="F82" s="5"/>
     </row>
-    <row r="83" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="15"/>
+    <row r="83" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="17" t="s">
+        <v>80</v>
+      </c>
       <c r="B83" s="15"/>
       <c r="C83" s="15"/>
       <c r="D83" s="15"/>
       <c r="E83" s="15"/>
       <c r="F83" s="5"/>
     </row>
-    <row r="84" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B84" s="15"/>
-      <c r="C84" s="15"/>
+    <row r="84" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B84" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C84" s="15" t="s">
+        <v>79</v>
+      </c>
       <c r="D84" s="15"/>
-      <c r="E84" s="15"/>
-      <c r="F84" s="5"/>
+      <c r="E84" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F84" s="15" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="85" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="C85" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="D85" s="15"/>
-      <c r="E85" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="F85" s="15" t="s">
-        <v>82</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="C85" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D85" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E85" s="20"/>
+      <c r="F85" s="19"/>
     </row>
     <row r="86" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="11" t="s">
@@ -2456,29 +2425,29 @@
       <c r="B86" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="C86" s="20" t="s">
+      <c r="C86" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D86" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D86" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="E86" s="20"/>
-      <c r="F86" s="19"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="5"/>
     </row>
     <row r="87" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D87" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E87" s="15"/>
+        <v>79</v>
+      </c>
+      <c r="D87" s="15"/>
+      <c r="E87" s="15" t="s">
+        <v>89</v>
+      </c>
       <c r="F87" s="5"/>
     </row>
     <row r="88" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2486,14 +2455,14 @@
         <v>2</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="D88" s="15"/>
       <c r="E88" s="15" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="F88" s="5"/>
     </row>
@@ -2502,14 +2471,14 @@
         <v>2</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D89" s="15"/>
       <c r="E89" s="15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F89" s="5"/>
     </row>
@@ -2518,14 +2487,14 @@
         <v>2</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="D90" s="15"/>
       <c r="E90" s="15" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="F90" s="5"/>
     </row>
@@ -2533,66 +2502,64 @@
       <c r="A91" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B91" s="15" t="s">
-        <v>85</v>
+      <c r="B91" s="20" t="s">
+        <v>106</v>
       </c>
       <c r="C91" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="D91" s="15"/>
-      <c r="E91" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="F91" s="5"/>
+      <c r="D91" s="20"/>
+      <c r="E91" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="F91" s="19"/>
     </row>
     <row r="92" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B92" s="20" t="s">
-        <v>107</v>
+      <c r="B92" s="15" t="s">
+        <v>88</v>
       </c>
       <c r="C92" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="D92" s="20"/>
-      <c r="E92" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F92" s="19"/>
+        <v>86</v>
+      </c>
+      <c r="D92" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E92" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F92" s="5"/>
     </row>
     <row r="93" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B93" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C93" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="D93" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="E93" s="15" t="s">
-        <v>87</v>
-      </c>
+      <c r="A93" s="15"/>
+      <c r="B93" s="15"/>
+      <c r="C93" s="15"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="15"/>
       <c r="F93" s="5"/>
     </row>
-    <row r="94" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="15"/>
+    <row r="94" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="17" t="s">
+        <v>76</v>
+      </c>
       <c r="B94" s="15"/>
       <c r="C94" s="15"/>
       <c r="D94" s="15"/>
       <c r="E94" s="15"/>
       <c r="F94" s="5"/>
     </row>
-    <row r="95" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="B95" s="15"/>
-      <c r="C95" s="15"/>
+    <row r="95" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B95" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C95" s="15" t="s">
+        <v>79</v>
+      </c>
       <c r="D95" s="15"/>
       <c r="E95" s="15"/>
       <c r="F95" s="5"/>
@@ -2602,10 +2569,10 @@
         <v>2</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C96" s="15" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="D96" s="15"/>
       <c r="E96" s="15"/>
@@ -2615,39 +2582,39 @@
       <c r="A97" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B97" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C97" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="D97" s="15"/>
-      <c r="E97" s="15"/>
-      <c r="F97" s="5"/>
+      <c r="B97" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C97" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D97" s="20"/>
+      <c r="E97" s="20"/>
+      <c r="F97" s="19"/>
     </row>
     <row r="98" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B98" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="C98" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D98" s="20"/>
-      <c r="E98" s="20"/>
-      <c r="F98" s="19"/>
+      <c r="B98" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C98" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D98" s="15"/>
+      <c r="E98" s="15"/>
+      <c r="F98" s="5"/>
     </row>
     <row r="99" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="D99" s="15"/>
       <c r="E99" s="15"/>
@@ -2658,10 +2625,10 @@
         <v>2</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C100" s="15" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="D100" s="15"/>
       <c r="E100" s="15"/>
@@ -2672,13 +2639,15 @@
         <v>2</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C101" s="15" t="s">
         <v>79</v>
       </c>
       <c r="D101" s="15"/>
-      <c r="E101" s="15"/>
+      <c r="E101" s="15" t="s">
+        <v>121</v>
+      </c>
       <c r="F101" s="5"/>
     </row>
     <row r="102" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2686,27 +2655,19 @@
         <v>2</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C102" s="15" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="D102" s="15"/>
-      <c r="E102" s="15" t="s">
-        <v>123</v>
-      </c>
+      <c r="E102" s="15"/>
       <c r="F102" s="5"/>
     </row>
     <row r="103" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B103" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="C103" s="15" t="s">
-        <v>92</v>
-      </c>
+      <c r="A103" s="15"/>
+      <c r="B103" s="15"/>
+      <c r="C103" s="15"/>
       <c r="D103" s="15"/>
       <c r="E103" s="15"/>
       <c r="F103" s="5"/>
@@ -2791,14 +2752,7 @@
       <c r="E113" s="15"/>
       <c r="F113" s="5"/>
     </row>
-    <row r="114" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="15"/>
-      <c r="B114" s="15"/>
-      <c r="C114" s="15"/>
-      <c r="D114" s="15"/>
-      <c r="E114" s="15"/>
-      <c r="F114" s="5"/>
-    </row>
+    <row r="114" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="115" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="116" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="117" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2858,7 +2812,6 @@
     <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/doc/_editable/Artifacts.xlsx
+++ b/doc/_editable/Artifacts.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8385"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="MyBar Artifacts" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'MyBar Artifacts'!$A$1:$E$59</definedName>
   </definedNames>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="128">
   <si>
     <t>Notes</t>
   </si>
@@ -408,13 +408,16 @@
   </si>
   <si>
     <t>Adam Clark, Mathias Bjurbäck, Mathias Karlgren</t>
+  </si>
+  <si>
+    <t>Test Report</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -481,6 +484,11 @@
       <color theme="11"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -567,7 +575,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -628,6 +636,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -938,8 +952,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:F113" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A2:F113"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:F114" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A2:F114"/>
   <tableColumns count="6">
     <tableColumn id="1" name="General Context" dataDxfId="5"/>
     <tableColumn id="2" name="Particular Context" dataDxfId="4"/>
@@ -1241,13 +1255,13 @@
     <tabColor theme="6" tint="0.79998168889431442"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G173"/>
+  <dimension ref="A1:G174"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C65" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E78" sqref="E78"/>
+      <selection pane="bottomRight" activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2338,116 +2352,114 @@
       <c r="A80" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B80" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="C80" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D80" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E80" s="15"/>
-      <c r="F80" s="5"/>
+      <c r="B80" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C80" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D80" s="24"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="23"/>
     </row>
     <row r="81" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="C81" s="15" t="s">
         <v>42</v>
       </c>
       <c r="D81" s="15" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E81" s="15"/>
       <c r="F81" s="5"/>
     </row>
     <row r="82" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="15"/>
-      <c r="B82" s="15"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="15"/>
+      <c r="A82" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B82" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D82" s="15" t="s">
+        <v>43</v>
+      </c>
       <c r="E82" s="15"/>
       <c r="F82" s="5"/>
     </row>
-    <row r="83" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="17" t="s">
-        <v>80</v>
-      </c>
+    <row r="83" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="15"/>
       <c r="B83" s="15"/>
       <c r="C83" s="15"/>
       <c r="D83" s="15"/>
       <c r="E83" s="15"/>
       <c r="F83" s="5"/>
     </row>
-    <row r="84" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B84" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="C84" s="15" t="s">
-        <v>79</v>
-      </c>
+    <row r="84" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B84" s="15"/>
+      <c r="C84" s="15"/>
       <c r="D84" s="15"/>
-      <c r="E84" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="F84" s="15" t="s">
-        <v>82</v>
-      </c>
+      <c r="E84" s="15"/>
+      <c r="F84" s="5"/>
     </row>
     <row r="85" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="C85" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D85" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="E85" s="20"/>
-      <c r="F85" s="19"/>
+        <v>115</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D85" s="15"/>
+      <c r="E85" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F85" s="15" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="86" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="C86" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D86" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C86" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="E86" s="15"/>
-      <c r="F86" s="5"/>
+      <c r="D86" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E86" s="20"/>
+      <c r="F86" s="19"/>
     </row>
     <row r="87" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="D87" s="15"/>
-      <c r="E87" s="15" t="s">
-        <v>89</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D87" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E87" s="15"/>
       <c r="F87" s="5"/>
     </row>
     <row r="88" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2455,14 +2467,14 @@
         <v>2</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="D88" s="15"/>
       <c r="E88" s="15" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="F88" s="5"/>
     </row>
@@ -2471,10 +2483,10 @@
         <v>2</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D89" s="15"/>
       <c r="E89" s="15" t="s">
@@ -2487,14 +2499,14 @@
         <v>2</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="D90" s="15"/>
       <c r="E90" s="15" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="F90" s="5"/>
     </row>
@@ -2502,64 +2514,66 @@
       <c r="A91" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B91" s="20" t="s">
-        <v>106</v>
+      <c r="B91" s="15" t="s">
+        <v>85</v>
       </c>
       <c r="C91" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="D91" s="20"/>
-      <c r="E91" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="F91" s="19"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F91" s="5"/>
     </row>
     <row r="92" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B92" s="15" t="s">
+      <c r="B92" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C92" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D92" s="20"/>
+      <c r="E92" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="F92" s="19"/>
+    </row>
+    <row r="93" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B93" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C92" s="15" t="s">
+      <c r="C93" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="D92" s="15" t="s">
+      <c r="D93" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="E92" s="15" t="s">
+      <c r="E93" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="F92" s="5"/>
-    </row>
-    <row r="93" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="15"/>
-      <c r="B93" s="15"/>
-      <c r="C93" s="15"/>
-      <c r="D93" s="15"/>
-      <c r="E93" s="15"/>
       <c r="F93" s="5"/>
     </row>
-    <row r="94" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="17" t="s">
-        <v>76</v>
-      </c>
+    <row r="94" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="15"/>
       <c r="B94" s="15"/>
       <c r="C94" s="15"/>
       <c r="D94" s="15"/>
       <c r="E94" s="15"/>
       <c r="F94" s="5"/>
     </row>
-    <row r="95" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B95" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C95" s="15" t="s">
-        <v>79</v>
-      </c>
+    <row r="95" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B95" s="15"/>
+      <c r="C95" s="15"/>
       <c r="D95" s="15"/>
       <c r="E95" s="15"/>
       <c r="F95" s="5"/>
@@ -2569,10 +2583,10 @@
         <v>2</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C96" s="15" t="s">
-        <v>122</v>
+        <v>79</v>
       </c>
       <c r="D96" s="15"/>
       <c r="E96" s="15"/>
@@ -2582,39 +2596,39 @@
       <c r="A97" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B97" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="C97" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D97" s="20"/>
-      <c r="E97" s="20"/>
-      <c r="F97" s="19"/>
+      <c r="B97" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C97" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D97" s="15"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="5"/>
     </row>
     <row r="98" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B98" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C98" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="D98" s="15"/>
-      <c r="E98" s="15"/>
-      <c r="F98" s="5"/>
+      <c r="B98" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C98" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D98" s="20"/>
+      <c r="E98" s="20"/>
+      <c r="F98" s="19"/>
     </row>
     <row r="99" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="D99" s="15"/>
       <c r="E99" s="15"/>
@@ -2625,10 +2639,10 @@
         <v>2</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C100" s="15" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="D100" s="15"/>
       <c r="E100" s="15"/>
@@ -2639,15 +2653,13 @@
         <v>2</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C101" s="15" t="s">
         <v>79</v>
       </c>
       <c r="D101" s="15"/>
-      <c r="E101" s="15" t="s">
-        <v>121</v>
-      </c>
+      <c r="E101" s="15"/>
       <c r="F101" s="5"/>
     </row>
     <row r="102" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2655,19 +2667,27 @@
         <v>2</v>
       </c>
       <c r="B102" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C102" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D102" s="15"/>
+      <c r="E102" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="F102" s="5"/>
+    </row>
+    <row r="103" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B103" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="C102" s="15" t="s">
+      <c r="C103" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="D102" s="15"/>
-      <c r="E102" s="15"/>
-      <c r="F102" s="5"/>
-    </row>
-    <row r="103" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="15"/>
-      <c r="B103" s="15"/>
-      <c r="C103" s="15"/>
       <c r="D103" s="15"/>
       <c r="E103" s="15"/>
       <c r="F103" s="5"/>
@@ -2752,7 +2772,14 @@
       <c r="E113" s="15"/>
       <c r="F113" s="5"/>
     </row>
-    <row r="114" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="15"/>
+      <c r="B114" s="15"/>
+      <c r="C114" s="15"/>
+      <c r="D114" s="15"/>
+      <c r="E114" s="15"/>
+      <c r="F114" s="5"/>
+    </row>
     <row r="115" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="116" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="117" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2812,6 +2839,7 @@
     <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/doc/_editable/Artifacts.xlsx
+++ b/doc/_editable/Artifacts.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="MyBar Artifacts" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="128">
   <si>
     <t>Notes</t>
   </si>
@@ -631,17 +631,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1258,10 +1258,10 @@
   <dimension ref="A1:G174"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C65" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C81" sqref="C81"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1269,17 +1269,17 @@
     <col min="1" max="1" width="39.7109375" style="4" customWidth="1"/>
     <col min="2" max="2" width="33.140625" style="4" customWidth="1"/>
     <col min="3" max="3" width="66.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="39.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="79" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="37.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="6" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="24"/>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
       <c r="E1" s="10"/>
@@ -1432,7 +1432,9 @@
       <c r="C11" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="3"/>
@@ -1447,7 +1449,9 @@
       <c r="C12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="3"/>
@@ -1462,7 +1466,9 @@
       <c r="C13" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="3"/>
@@ -1477,7 +1483,9 @@
       <c r="C14" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="3"/>
@@ -2352,15 +2360,15 @@
       <c r="A80" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B80" s="24" t="s">
+      <c r="B80" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="C80" s="24" t="s">
+      <c r="C80" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="D80" s="24"/>
-      <c r="E80" s="24"/>
-      <c r="F80" s="23"/>
+      <c r="D80" s="22"/>
+      <c r="E80" s="22"/>
+      <c r="F80" s="21"/>
     </row>
     <row r="81" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="s">
@@ -2847,10 +2855,10 @@
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.71" right="0.71" top="0.71" bottom="0.71" header="0.5" footer="0.5"/>
-  <pageSetup scale="47" fitToHeight="0" orientation="landscape"/>
+  <pageSetup scale="48" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
